--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D3DE5-BD00-4891-8EA0-4804E1CBE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A561C0A-8FF0-4980-83C5-8D0FF522C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="12" width="5.109375" customWidth="1"/>
+    <col min="4" max="12" width="5.109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="5.21875" customWidth="1"/>
     <col min="14" max="22" width="5.109375" customWidth="1"/>
     <col min="23" max="23" width="4.88671875" customWidth="1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A561C0A-8FF0-4980-83C5-8D0FF522C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3AC1E0-2C5E-41E1-94C8-C11055971542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,27 +581,27 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="12" width="5.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" customWidth="1"/>
-    <col min="14" max="22" width="5.109375" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" customWidth="1"/>
-    <col min="24" max="28" width="5.109375" customWidth="1"/>
-    <col min="29" max="30" width="4.88671875" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" customWidth="1"/>
-    <col min="32" max="32" width="7" customWidth="1"/>
-    <col min="33" max="33" width="6.5546875" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="11" width="4.77734375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" customWidth="1"/>
-    <col min="36" max="36" width="10" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,8 +738,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.75</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -757,30 +761,30 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
         <f t="shared" ref="AE2:AE43" si="1">SUM(M2:AD2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ref="AF2:AF43" si="2">L2+AE2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH43" si="4">(AF2/AG2)*100</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI43" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <f>0.8*AI2+0.2*AJ2</f>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
@@ -803,8 +807,12 @@
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.75</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -822,30 +830,30 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="10">
         <f t="shared" ref="AK3:AK43" si="6">0.8*AI3+0.2*AJ3</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
@@ -895,7 +903,7 @@
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
@@ -934,7 +942,9 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
@@ -960,7 +970,7 @@
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
@@ -1000,8 +1010,12 @@
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="1"/>
@@ -1019,30 +1033,30 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
@@ -1065,8 +1079,12 @@
         <v>0</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
@@ -1092,7 +1110,7 @@
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
@@ -1157,7 +1175,7 @@
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
@@ -1195,7 +1213,9 @@
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="6"/>
@@ -1222,7 +1242,7 @@
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
@@ -1260,8 +1280,12 @@
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="1"/>
@@ -1287,7 +1311,7 @@
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
@@ -1352,7 +1376,7 @@
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
@@ -1417,7 +1441,7 @@
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
@@ -1455,7 +1479,9 @@
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="6"/>
@@ -1482,7 +1508,7 @@
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
@@ -1520,7 +1546,9 @@
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
@@ -1539,19 +1567,19 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1586,7 +1614,9 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1604,30 +1634,30 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL15" s="4"/>
     </row>
@@ -1677,7 +1707,7 @@
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
@@ -1742,7 +1772,7 @@
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
@@ -1780,8 +1810,12 @@
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
@@ -1799,30 +1833,30 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
       <c r="AK18" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL18" s="4"/>
     </row>
@@ -1872,7 +1906,7 @@
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
@@ -1937,7 +1971,7 @@
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="4"/>
@@ -1975,7 +2009,9 @@
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="7"/>
@@ -2002,7 +2038,7 @@
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="4"/>
@@ -2067,7 +2103,7 @@
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH22" s="3">
         <f t="shared" si="4"/>
@@ -2132,7 +2168,7 @@
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="3">
         <f t="shared" si="4"/>
@@ -2197,7 +2233,7 @@
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH24" s="3">
         <f t="shared" si="4"/>
@@ -2264,7 +2300,7 @@
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="4"/>
@@ -2302,7 +2338,9 @@
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="7"/>
@@ -2329,7 +2367,7 @@
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="4"/>
@@ -2394,7 +2432,7 @@
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="3">
         <f t="shared" si="4"/>
@@ -2459,7 +2497,7 @@
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="4"/>
@@ -2524,7 +2562,7 @@
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH29" s="3">
         <f t="shared" si="4"/>
@@ -2589,7 +2627,7 @@
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="3">
         <f t="shared" si="4"/>
@@ -2654,7 +2692,7 @@
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="3">
         <f t="shared" si="4"/>
@@ -2719,7 +2757,7 @@
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="4"/>
@@ -2784,7 +2822,7 @@
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH33" s="3">
         <f t="shared" si="4"/>
@@ -2849,7 +2887,7 @@
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="4"/>
@@ -2914,7 +2952,7 @@
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH35" s="3">
         <f t="shared" si="4"/>
@@ -2979,7 +3017,7 @@
       </c>
       <c r="AG36" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH36" s="3">
         <f t="shared" si="4"/>
@@ -3044,7 +3082,7 @@
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH37" s="3">
         <f t="shared" si="4"/>
@@ -3109,7 +3147,7 @@
       </c>
       <c r="AG38" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH38" s="3">
         <f t="shared" si="4"/>
@@ -3174,7 +3212,7 @@
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="4"/>
@@ -3239,7 +3277,7 @@
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="4"/>
@@ -3304,7 +3342,7 @@
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH41" s="3">
         <f t="shared" si="4"/>
@@ -3369,7 +3407,7 @@
       </c>
       <c r="AG42" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" si="4"/>
@@ -3413,62 +3451,32 @@
       <c r="O43" s="1">
         <v>1.5</v>
       </c>
-      <c r="P43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="S43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="W43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="X43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
       <c r="AE43" s="1">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43</f>
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="AH43" s="3">
         <f t="shared" si="4"/>
@@ -41729,6 +41737,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3AC1E0-2C5E-41E1-94C8-C11055971542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F1D16-8E0E-4263-89DC-51FCC150FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -591,10 +591,10 @@
     <col min="3" max="3" width="4.44140625" hidden="1" customWidth="1"/>
     <col min="4" max="11" width="4.77734375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="2.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="30" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
@@ -769,22 +769,22 @@
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH43" si="4">(AF2/AG2)*100</f>
-        <v>50</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI43" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <f>0.8*AI2+0.2*AJ2</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>66.666666666666657</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="10">
         <f t="shared" ref="AK3:AK43" si="6">0.8*AI3+0.2*AJ3</f>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
@@ -945,7 +945,9 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -970,7 +972,7 @@
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
@@ -1041,22 +1043,22 @@
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
@@ -1110,7 +1112,7 @@
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
@@ -1175,7 +1177,7 @@
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
@@ -1216,8 +1218,12 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1234,19 +1240,19 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="5"/>
@@ -1311,7 +1317,7 @@
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
@@ -1376,7 +1382,7 @@
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
@@ -1482,8 +1488,12 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.75</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1500,19 +1510,19 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
@@ -1575,11 +1585,11 @@
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>16.666666666666664</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1642,22 +1652,22 @@
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="4"/>
     </row>
@@ -1707,7 +1717,7 @@
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
@@ -1772,7 +1782,7 @@
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
@@ -1841,22 +1851,22 @@
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
       <c r="AK18" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="4"/>
     </row>
@@ -1906,7 +1916,7 @@
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
@@ -1971,7 +1981,7 @@
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="4"/>
@@ -2038,7 +2048,7 @@
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="4"/>
@@ -2103,7 +2113,7 @@
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH22" s="3">
         <f t="shared" si="4"/>
@@ -2168,7 +2178,7 @@
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH23" s="3">
         <f t="shared" si="4"/>
@@ -2233,7 +2243,7 @@
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH24" s="3">
         <f t="shared" si="4"/>
@@ -2300,7 +2310,7 @@
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="4"/>
@@ -2367,7 +2377,7 @@
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="4"/>
@@ -2432,7 +2442,7 @@
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH27" s="3">
         <f t="shared" si="4"/>
@@ -2497,7 +2507,7 @@
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="4"/>
@@ -2562,7 +2572,7 @@
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH29" s="3">
         <f t="shared" si="4"/>
@@ -2627,7 +2637,7 @@
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH30" s="3">
         <f t="shared" si="4"/>
@@ -2692,7 +2702,7 @@
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH31" s="3">
         <f t="shared" si="4"/>
@@ -2757,7 +2767,7 @@
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="4"/>
@@ -2822,7 +2832,7 @@
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH33" s="3">
         <f t="shared" si="4"/>
@@ -2887,7 +2897,7 @@
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="4"/>
@@ -2952,7 +2962,7 @@
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH35" s="3">
         <f t="shared" si="4"/>
@@ -3017,7 +3027,7 @@
       </c>
       <c r="AG36" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH36" s="3">
         <f t="shared" si="4"/>
@@ -3082,7 +3092,7 @@
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH37" s="3">
         <f t="shared" si="4"/>
@@ -3147,7 +3157,7 @@
       </c>
       <c r="AG38" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH38" s="3">
         <f t="shared" si="4"/>
@@ -3212,7 +3222,7 @@
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="4"/>
@@ -3277,7 +3287,7 @@
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="4"/>
@@ -3342,7 +3352,7 @@
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH41" s="3">
         <f t="shared" si="4"/>
@@ -3407,7 +3417,7 @@
       </c>
       <c r="AG42" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" si="4"/>
@@ -3451,32 +3461,62 @@
       <c r="O43" s="1">
         <v>1.5</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
+      <c r="P43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1.5</v>
+      </c>
       <c r="AE43" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43</f>
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AH43" s="3">
         <f t="shared" si="4"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F1D16-8E0E-4263-89DC-51FCC150FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549E3F0-4C93-42CD-AEA8-B1F5FD1F5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1088,9 @@
         <v>0</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1104,11 +1106,11 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
@@ -1116,7 +1118,7 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
@@ -1628,7 +1630,9 @@
         <v>1</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1644,11 +1648,11 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549E3F0-4C93-42CD-AEA8-B1F5FD1F5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997C220-D948-49B5-83D3-3F4BBA89BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,9 @@
     <col min="13" max="13" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.44140625" customWidth="1"/>
-    <col min="17" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
@@ -880,7 +882,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1">
+        <v>0.75</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -895,11 +899,11 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
@@ -907,7 +911,7 @@
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
@@ -1497,7 +1501,9 @@
         <v>0.75</v>
       </c>
       <c r="Q13" s="6"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1">
+        <v>1.25</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1512,11 +1518,11 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
@@ -1524,7 +1530,7 @@
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>2.9411764705882351</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
@@ -1564,7 +1570,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.75</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1579,11 +1587,11 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
@@ -1591,7 +1599,7 @@
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997C220-D948-49B5-83D3-3F4BBA89BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E4D69-82DC-4D1B-B800-65C4FA426B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
     <col min="13" max="13" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.44140625" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -724,7 +724,7 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -736,12 +736,12 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L43" si="0">SUM(C2:K2)</f>
+        <f t="shared" ref="L2:L42" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="O2" s="1">
         <v>0.75</v>
@@ -762,30 +762,30 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE43" si="1">SUM(M2:AD2)</f>
-        <v>1.5</v>
+        <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
+        <v>2</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF43" si="2">L2+AE2</f>
-        <v>1.5</v>
+        <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
+        <v>2</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
         <v>25.5</v>
       </c>
       <c r="AH2" s="3">
-        <f t="shared" ref="AH2:AH43" si="4">(AF2/AG2)*100</f>
-        <v>5.8823529411764701</v>
+        <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI2" s="3">
-        <f t="shared" ref="AI2:AI43" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
+        <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
-        <f>0.8*AI2+0.2*AJ2</f>
+        <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
         <v>0</v>
       </c>
       <c r="AL2" s="4"/>
@@ -793,7 +793,7 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -810,13 +810,15 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -854,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="10">
-        <f t="shared" ref="AK3:AK43" si="6">0.8*AI3+0.2*AJ3</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL3" s="4"/>
@@ -862,7 +864,7 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -878,12 +880,18 @@
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.75</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -899,11 +907,11 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
@@ -911,7 +919,7 @@
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>2.9411764705882351</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
@@ -929,7 +937,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -947,12 +955,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -968,11 +976,11 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
@@ -980,7 +988,7 @@
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="5"/>
@@ -996,11 +1004,9 @@
       <c r="AL5" s="4"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1017,14 +1023,16 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1039,11 +1047,11 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
@@ -1051,7 +1059,7 @@
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>6.8627450980392162</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
@@ -1069,7 +1077,7 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1086,15 +1094,13 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="8"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1110,11 +1116,11 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
@@ -1122,7 +1128,7 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
@@ -1138,9 +1144,11 @@
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1156,10 +1164,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1175,11 +1187,11 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
@@ -1187,7 +1199,7 @@
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
@@ -1205,7 +1217,7 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1227,10 +1239,10 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1246,11 +1258,11 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
@@ -1258,7 +1270,7 @@
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="5"/>
@@ -1276,7 +1288,7 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="6"/>
@@ -1315,11 +1327,11 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
@@ -1327,7 +1339,7 @@
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="5"/>
@@ -1345,7 +1357,7 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1365,7 +1377,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.75</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1380,11 +1394,11 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
@@ -1392,7 +1406,7 @@
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="5"/>
@@ -1408,9 +1422,11 @@
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1429,8 +1445,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1445,11 +1463,11 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
@@ -1457,7 +1475,7 @@
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="5"/>
@@ -1475,7 +1493,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1494,15 +1512,11 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="1">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1518,11 +1532,11 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
@@ -1530,7 +1544,7 @@
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
@@ -1548,7 +1562,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1564,15 +1578,15 @@
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
       <c r="Q14" s="6"/>
-      <c r="R14" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1587,11 +1601,11 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
@@ -1599,7 +1613,7 @@
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>4.9019607843137258</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1617,7 +1631,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1634,15 +1648,13 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1656,11 +1668,11 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
@@ -1668,7 +1680,7 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
@@ -1686,7 +1698,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1702,12 +1714,18 @@
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1721,11 +1739,11 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="3"/>
@@ -1733,7 +1751,7 @@
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="5"/>
@@ -1751,7 +1769,7 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1816,7 +1834,7 @@
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1832,12 +1850,8 @@
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
@@ -1855,11 +1869,11 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="3"/>
@@ -1867,7 +1881,7 @@
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="5"/>
@@ -1885,7 +1899,7 @@
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1950,7 +1964,7 @@
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1969,7 +1983,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2015,7 +2029,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2031,9 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="7"/>
@@ -2082,7 +2094,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2147,7 +2159,7 @@
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2163,10 +2175,12 @@
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2212,7 +2226,7 @@
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2275,11 +2289,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2344,7 +2356,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2360,12 +2372,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -3463,7 +3473,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L43" si="7">SUM(C43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="1"/>
@@ -3519,11 +3529,11 @@
         <v>1.5</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
         <v>25.5</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AF43" si="9">L43+AE43</f>
         <v>25.5</v>
       </c>
       <c r="AG43" s="1">
@@ -3531,18 +3541,18 @@
         <v>25.5</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
         <v>100</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AI43" si="11">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ43" s="10">
         <v>0</v>
       </c>
       <c r="AK43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AK43" si="12">0.8*AI43+0.2*AJ43</f>
         <v>4</v>
       </c>
       <c r="AL43" s="4"/>
@@ -41788,6 +41798,9 @@
       <c r="AL999" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL42">
+    <sortCondition descending="1" ref="AF2:AF42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E4D69-82DC-4D1B-B800-65C4FA426B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFED9E-0AC4-430F-83A9-47EB8A044BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>1.5</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -763,11 +765,11 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
         <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
@@ -775,7 +777,7 @@
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>7.8431372549019605</v>
+        <v>13.725490196078432</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFED9E-0AC4-430F-83A9-47EB8A044BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C687DFD-EC7A-4593-8853-DA1856650187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1105,9 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1118,11 +1120,11 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
@@ -1130,7 +1132,7 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>5.8823529411764701</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C687DFD-EC7A-4593-8853-DA1856650187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8046A-906B-4296-80D7-C72F8DD02ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,9 @@
     <col min="16" max="16" width="5.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
@@ -1106,7 +1108,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1120,11 +1122,11 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
@@ -1132,18 +1134,18 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>17.647058823529413</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL7" s="4"/>
     </row>
@@ -1178,7 +1180,9 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1191,11 +1195,11 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
@@ -1203,7 +1207,7 @@
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
@@ -1318,7 +1322,9 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1">
+        <v>2.75</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1331,11 +1337,11 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
@@ -1343,7 +1349,7 @@
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>14.705882352941178</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="5"/>
@@ -1385,7 +1391,9 @@
         <v>0.75</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1398,11 +1406,11 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>2.9411764705882351</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8046A-906B-4296-80D7-C72F8DD02ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F89087-3505-4BC0-B1A0-AE1F30CD89DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="O2" s="1">
         <v>0.75</v>
@@ -751,10 +751,10 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="T2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>5</v>
+      </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -767,37 +767,39 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
         <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>13.725490196078432</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -814,18 +816,18 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -838,37 +840,37 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -888,17 +890,15 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1">
+        <v>2.75</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -911,37 +911,37 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>25</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -957,18 +957,22 @@
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1.25</v>
+      </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>1.5</v>
+      </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -980,37 +984,37 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <v>50</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL5" s="4"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1027,16 +1031,16 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1051,19 +1055,19 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>6.8627450980392162</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
@@ -1081,7 +1085,7 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1098,18 +1102,20 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.75</v>
       </c>
-      <c r="O7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="1">
+        <v>1.25</v>
+      </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>5</v>
-      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1122,39 +1128,37 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>25.490196078431371</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1170,19 +1174,17 @@
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>4</v>
-      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1195,19 +1197,19 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>19.607843137254903</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
@@ -1225,7 +1227,7 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1242,19 +1244,21 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1266,37 +1270,37 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1312,18 +1316,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.75</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1337,19 +1339,19 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>14.705882352941178</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="5"/>
@@ -1367,7 +1369,7 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1383,17 +1385,19 @@
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1406,19 +1410,19 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>4.9019607843137258</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="5"/>
@@ -1434,11 +1438,9 @@
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1454,16 +1456,22 @@
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="1"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>3</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1475,37 +1483,39 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1521,12 +1531,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="1">
         <v>0.5</v>
       </c>
@@ -1552,11 +1560,11 @@
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
@@ -1574,7 +1582,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1590,15 +1598,15 @@
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1613,19 +1621,19 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1688,11 +1696,11 @@
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
@@ -1710,7 +1718,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1726,18 +1734,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1751,19 +1757,19 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="5"/>
@@ -1824,7 +1830,7 @@
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
@@ -1889,7 +1895,7 @@
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
@@ -1954,7 +1960,7 @@
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
@@ -2019,7 +2025,7 @@
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="4"/>
@@ -2084,7 +2090,7 @@
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="4"/>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH22" s="3">
         <f t="shared" si="4"/>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH23" s="3">
         <f t="shared" si="4"/>
@@ -2281,7 +2287,7 @@
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH24" s="3">
         <f t="shared" si="4"/>
@@ -2346,7 +2352,7 @@
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="4"/>
@@ -2411,7 +2417,7 @@
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="4"/>
@@ -2476,7 +2482,7 @@
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="3">
         <f t="shared" si="4"/>
@@ -2541,7 +2547,7 @@
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="4"/>
@@ -2606,7 +2612,7 @@
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" s="3">
         <f t="shared" si="4"/>
@@ -2671,7 +2677,7 @@
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH30" s="3">
         <f t="shared" si="4"/>
@@ -2736,7 +2742,7 @@
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH31" s="3">
         <f t="shared" si="4"/>
@@ -2801,7 +2807,7 @@
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="4"/>
@@ -2866,7 +2872,7 @@
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" s="3">
         <f t="shared" si="4"/>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="4"/>
@@ -2996,7 +3002,7 @@
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH35" s="3">
         <f t="shared" si="4"/>
@@ -3061,7 +3067,7 @@
       </c>
       <c r="AG36" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH36" s="3">
         <f t="shared" si="4"/>
@@ -3126,7 +3132,7 @@
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH37" s="3">
         <f t="shared" si="4"/>
@@ -3191,7 +3197,7 @@
       </c>
       <c r="AG38" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH38" s="3">
         <f t="shared" si="4"/>
@@ -3256,7 +3262,7 @@
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="4"/>
@@ -3321,7 +3327,7 @@
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="4"/>
@@ -3386,7 +3392,7 @@
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH41" s="3">
         <f t="shared" si="4"/>
@@ -3451,7 +3457,7 @@
       </c>
       <c r="AG42" s="1">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" si="4"/>
@@ -3490,67 +3496,63 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
       <c r="AE43" s="1">
         <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" ref="AF43" si="9">L43+AE43</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH43" s="3">
         <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
@@ -41811,7 +41813,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL42">
-    <sortCondition descending="1" ref="AF2:AF42"/>
+    <sortCondition descending="1" ref="AH2:AH42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F89087-3505-4BC0-B1A0-AE1F30CD89DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930960E-92DD-45D9-8FDE-B83FCE07A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1043,9 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -1055,11 +1057,11 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
@@ -1067,7 +1069,7 @@
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
@@ -1540,7 +1542,9 @@
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1552,11 +1556,11 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
@@ -1564,7 +1568,7 @@
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930960E-92DD-45D9-8FDE-B83FCE07A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487549F-020F-4A98-B4E7-85617B88F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,9 @@
         <v>4</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -840,11 +842,11 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
@@ -852,18 +854,18 @@
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
@@ -1047,7 +1049,9 @@
         <v>0.5</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1057,11 +1061,11 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
@@ -1069,18 +1073,18 @@
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>16.666666666666664</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
@@ -1681,7 +1685,9 @@
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1692,11 +1698,11 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
@@ -1704,7 +1710,7 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>10</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487549F-020F-4A98-B4E7-85617B88F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188933B3-31C9-404E-BCDA-4AECD67FE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -753,7 +753,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -767,11 +767,11 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
         <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
@@ -779,27 +779,25 @@
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>43.333333333333336</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
-        <v>2.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -816,23 +814,25 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
+      <c r="S3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
         <v>4</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -842,11 +842,11 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
@@ -854,25 +854,27 @@
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>53.333333333333336</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="10">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -889,20 +891,22 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -913,11 +917,11 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
@@ -925,25 +929,25 @@
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -960,23 +964,25 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="O5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="7">
         <v>0.75</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="R5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
         <v>4</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -986,11 +992,11 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
@@ -998,7 +1004,7 @@
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="5"/>
@@ -1016,7 +1022,7 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1038,19 +1044,19 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <v>2</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1061,11 +1067,11 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
@@ -1073,25 +1079,25 @@
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>23.333333333333332</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1111,20 +1117,20 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>2.75</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1134,11 +1140,11 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
@@ -1146,25 +1152,25 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1180,20 +1186,26 @@
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="7"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1203,11 +1215,11 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
@@ -1215,25 +1227,25 @@
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1250,21 +1262,21 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.75</v>
       </c>
+      <c r="Q9" s="6"/>
       <c r="R9" s="1">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1">
-        <v>4</v>
-      </c>
+      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1276,11 +1288,11 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="2"/>
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
@@ -1288,25 +1300,25 @@
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1323,16 +1335,16 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1345,11 +1357,11 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
@@ -1357,7 +1369,7 @@
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>8.3333333333333321</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="5"/>
@@ -1375,7 +1387,7 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1391,21 +1403,19 @@
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1416,11 +1426,11 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
@@ -1428,7 +1438,7 @@
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="5"/>
@@ -1446,7 +1456,7 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1462,22 +1472,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1">
-        <v>3</v>
-      </c>
+      <c r="R12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1489,11 +1495,11 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
@@ -1501,27 +1507,25 @@
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>26.666666666666668</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1537,18 +1541,20 @@
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1588,9 +1594,11 @@
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1606,18 +1614,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="1">
         <v>0.5</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1629,11 +1637,11 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
@@ -1641,7 +1649,7 @@
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1659,7 +1667,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1675,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1">
+      <c r="R15" s="1">
         <v>0.5</v>
       </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1698,11 +1706,11 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
@@ -1710,7 +1718,7 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
@@ -41823,7 +41831,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL42">
-    <sortCondition descending="1" ref="AH2:AH42"/>
+    <sortCondition descending="1" ref="AF2:AF42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188933B3-31C9-404E-BCDA-4AECD67FE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC45BF-6F08-452F-8305-E4C5DF51B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,9 @@
       <c r="W5" s="1">
         <v>0.5</v>
       </c>
-      <c r="X5" s="1"/>
+      <c r="X5" s="1">
+        <v>3.5</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -992,11 +994,11 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
@@ -1004,18 +1006,18 @@
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
-        <v>41.666666666666671</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="10">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="AL5" s="4"/>
     </row>
@@ -1206,7 +1208,9 @@
       <c r="W8" s="1">
         <v>1</v>
       </c>
-      <c r="X8" s="1"/>
+      <c r="X8" s="1">
+        <v>3</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -1215,11 +1219,11 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
@@ -1227,18 +1231,18 @@
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>23.333333333333332</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="10">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL8" s="4"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC2C65-DA1E-43C4-BD00-3E4DC14AA35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122D4B4-5E64-48EB-981E-8CEF4F494E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -720,7 +720,7 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -737,61 +737,69 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="7">
         <v>0.75</v>
       </c>
-      <c r="O2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="W2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.5</v>
+      </c>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
         <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AG42" si="3">AG3</f>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>76.666666666666671</v>
+        <v>42.156862745098039</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
-        <v>3.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -808,7 +816,7 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="O3" s="1">
         <v>0.75</v>
@@ -816,17 +824,13 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1">
-        <v>4</v>
-      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>3</v>
-      </c>
+      <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -836,39 +840,37 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>45.098039215686278</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="3">
         <f t="shared" si="6"/>
-        <v>3.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -885,27 +887,27 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
+      <c r="S4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
         <v>4</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
         <v>3</v>
       </c>
-      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1">
-        <v>2</v>
-      </c>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -913,37 +915,39 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>66.666666666666657</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
         <f t="shared" si="6"/>
-        <v>3.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -960,29 +964,27 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
+      <c r="T5" s="1">
         <v>4</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="Y5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
+        <v>2</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -990,30 +992,30 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="2"/>
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>39.215686274509807</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="3">
         <f t="shared" si="6"/>
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="AL5" s="4"/>
     </row>
@@ -1075,29 +1077,29 @@
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="6"/>
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1117,60 +1119,66 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="U7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
-        <v>2</v>
-      </c>
-      <c r="X7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="1">
+        <v>4.5</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="2"/>
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <v>43.137254901960787</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="6"/>
-        <v>1.6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1186,30 +1194,24 @@
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
+        <v>4</v>
+      </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1217,37 +1219,37 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>43.333333333333336</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="3">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1267,20 +1269,20 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1">
+        <v>2.75</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1290,37 +1292,37 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
+        <v>22.549019607843139</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1336,24 +1338,26 @@
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="1">
+        <v>1.25</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
-        <v>4</v>
-      </c>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1361,30 +1365,30 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
       </c>
       <c r="AK10" s="3">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="4"/>
     </row>
@@ -1438,11 +1442,11 @@
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="5"/>
@@ -1507,11 +1511,11 @@
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>8.3333333333333321</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="5"/>
@@ -1578,11 +1582,11 @@
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
@@ -1649,11 +1653,11 @@
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="5"/>
@@ -1718,11 +1722,11 @@
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
@@ -1772,26 +1776,28 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="5"/>
@@ -1852,7 +1858,7 @@
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
@@ -2047,7 +2053,7 @@
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="4"/>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="4"/>
@@ -2177,7 +2183,7 @@
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH22" s="3">
         <f t="shared" si="4"/>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH23" s="3">
         <f t="shared" si="4"/>
@@ -2309,7 +2315,7 @@
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH24" s="3">
         <f t="shared" si="4"/>
@@ -2374,7 +2380,7 @@
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="4"/>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="4"/>
@@ -2504,7 +2510,7 @@
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH27" s="3">
         <f t="shared" si="4"/>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="4"/>
@@ -2634,7 +2640,7 @@
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH29" s="3">
         <f t="shared" si="4"/>
@@ -2699,7 +2705,7 @@
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH30" s="3">
         <f t="shared" si="4"/>
@@ -2764,7 +2770,7 @@
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH31" s="3">
         <f t="shared" si="4"/>
@@ -2829,7 +2835,7 @@
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="4"/>
@@ -2894,7 +2900,7 @@
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH33" s="3">
         <f t="shared" si="4"/>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="4"/>
@@ -3024,7 +3030,7 @@
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH35" s="3">
         <f t="shared" si="4"/>
@@ -3089,7 +3095,7 @@
       </c>
       <c r="AG36" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH36" s="3">
         <f t="shared" si="4"/>
@@ -3154,7 +3160,7 @@
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH37" s="3">
         <f t="shared" si="4"/>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="AG38" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH38" s="3">
         <f t="shared" si="4"/>
@@ -3284,7 +3290,7 @@
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="4"/>
@@ -3349,7 +3355,7 @@
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="4"/>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH41" s="3">
         <f t="shared" si="4"/>
@@ -3479,7 +3485,7 @@
       </c>
       <c r="AG42" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" si="4"/>
@@ -3518,63 +3524,67 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA43" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1.5</v>
+      </c>
       <c r="AE43" s="1">
         <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" ref="AF43" si="9">L43+AE43</f>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43</f>
-        <v>15</v>
+        <v>25.5</v>
       </c>
       <c r="AH43" s="3">
         <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
@@ -41835,7 +41845,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL42">
-    <sortCondition descending="1" ref="AF2:AF42"/>
+    <sortCondition descending="1" ref="AH2:AH42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122D4B4-5E64-48EB-981E-8CEF4F494E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABADEDE-A730-4F6A-8488-4349F895C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -720,7 +720,7 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -732,74 +732,66 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L42" si="0">SUM(C2:K2)</f>
+        <f>SUM(C2:K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.75</v>
+      </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1">
-        <v>4</v>
-      </c>
+      <c r="T2" s="1">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X2" s="1">
-        <v>3.5</v>
-      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>10.75</v>
+        <f>SUM(M2:AD2)</f>
+        <v>11.5</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>10.75</v>
+        <f>L2+AE2</f>
+        <v>11.5</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" ref="AG2:AG42" si="3">AG3</f>
-        <v>25.5</v>
+        <f>AG3</f>
+        <v>15</v>
       </c>
       <c r="AH2" s="3">
-        <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>42.156862745098039</v>
+        <f>(AF2/AG2)*100</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="AI2" s="3">
-        <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>3</v>
+        <f>MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
-        <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI2+0.2*AJ2</f>
+        <v>3.2</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -811,66 +803,74 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3</v>
+      </c>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="1">
+        <v>4.5</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
+        <f>SUM(M3:AD3)</f>
+        <v>11</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="2"/>
-        <v>11.5</v>
+        <f>L3+AE3</f>
+        <v>11</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG4</f>
+        <v>15</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="4"/>
-        <v>45.098039215686278</v>
+        <f>(AF3/AG3)*100</f>
+        <v>73.333333333333329</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(AH3&gt;=20,2,0),IF(AH3&gt;=40,3,0),IF(AH3&gt;=60,4,0),IF(AH3&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI3+0.2*AJ3</f>
+        <v>3.2</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -882,72 +882,74 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="O4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="6">
         <v>0.75</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="R4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
         <v>4</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>3</v>
-      </c>
-      <c r="X4" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3.5</v>
+      </c>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f>SUM(M4:AD4)</f>
+        <v>10.75</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
+        <f>L4+AE4</f>
+        <v>10.75</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG5</f>
+        <v>15</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="4"/>
-        <v>41.17647058823529</v>
+        <f>(AF4/AG4)*100</f>
+        <v>71.666666666666671</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(AH4&gt;=20,2,0),IF(AH4&gt;=40,3,0),IF(AH4&gt;=60,4,0),IF(AH4&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI4+0.2*AJ4</f>
+        <v>3.2</v>
       </c>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -959,70 +961,72 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:K5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1">
+      <c r="S5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
         <v>4</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
         <v>3</v>
       </c>
-      <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1">
-        <v>2</v>
-      </c>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(M5:AD5)</f>
+        <v>10.5</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>L5+AE5</f>
+        <v>10.5</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG6</f>
+        <v>15</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="4"/>
-        <v>39.215686274509807</v>
+        <f>(AF5/AG5)*100</f>
+        <v>70</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>MAX(IF(AH5&gt;=20,2,0),IF(AH5&gt;=40,3,0),IF(AH5&gt;=60,4,0),IF(AH5&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6</v>
+        <f>0.8*AI5+0.2*AJ5</f>
+        <v>3.2</v>
       </c>
       <c r="AL5" s="4"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1034,33 +1038,31 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:K6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>3</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
-        <v>4</v>
-      </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -1068,38 +1070,38 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>SUM(M6:AD6)</f>
+        <v>10</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>L6+AE6</f>
+        <v>10</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG7</f>
+        <v>15</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="4"/>
-        <v>35.294117647058826</v>
+        <f>(AF6/AG6)*100</f>
+        <v>66.666666666666657</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>MAX(IF(AH6&gt;=20,2,0),IF(AH6&gt;=40,3,0),IF(AH6&gt;=60,4,0),IF(AH6&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6</v>
+        <f>0.8*AI6+0.2*AJ6</f>
+        <v>3.2</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1111,7 +1113,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:K7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="1"/>
@@ -1121,57 +1123,55 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1">
-        <v>2</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
         <v>1</v>
       </c>
-      <c r="X7" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1">
-        <v>4.5</v>
-      </c>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>SUM(M7:AD7)</f>
+        <v>9</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>L7+AE7</f>
+        <v>9</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG8</f>
+        <v>15</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="4"/>
-        <v>43.137254901960787</v>
+        <f>(AF7/AG7)*100</f>
+        <v>60</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(AH7&gt;=20,2,0),IF(AH7&gt;=40,3,0),IF(AH7&gt;=60,4,0),IF(AH7&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI7+0.2*AJ7</f>
+        <v>3.2</v>
       </c>
       <c r="AL7" s="4"/>
     </row>
@@ -1190,7 +1190,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:K8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -1218,31 +1218,31 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M8:AD8)</f>
         <v>6</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="2"/>
+        <f>L8+AE8</f>
         <v>6</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG9</f>
+        <v>15</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="4"/>
-        <v>23.52941176470588</v>
+        <f>(AF8/AG8)*100</f>
+        <v>40</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>MAX(IF(AH8&gt;=20,2,0),IF(AH8&gt;=40,3,0),IF(AH8&gt;=60,4,0),IF(AH8&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6</v>
+        <f>0.8*AI8+0.2*AJ8</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL8" s="4"/>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -1291,30 +1291,30 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M9:AD9)</f>
         <v>5.75</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="2"/>
+        <f>L9+AE9</f>
         <v>5.75</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG10</f>
+        <v>15</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="4"/>
-        <v>22.549019607843139</v>
+        <f>(AF9/AG9)*100</f>
+        <v>38.333333333333336</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH9&gt;=20,2,0),IF(AH9&gt;=40,3,0),IF(AH9&gt;=60,4,0),IF(AH9&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI9+0.2*AJ9</f>
         <v>1.6</v>
       </c>
       <c r="AL9" s="4"/>
@@ -1334,7 +1334,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:K10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -1364,30 +1364,30 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M10:AD10)</f>
         <v>2</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="2"/>
+        <f>L10+AE10</f>
         <v>2</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG11</f>
+        <v>15</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="4"/>
-        <v>7.8431372549019605</v>
+        <f>(AF10/AG10)*100</f>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH10&gt;=20,2,0),IF(AH10&gt;=40,3,0),IF(AH10&gt;=60,4,0),IF(AH10&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI10+0.2*AJ10</f>
         <v>0</v>
       </c>
       <c r="AL10" s="4"/>
@@ -1407,7 +1407,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:K11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
@@ -1433,30 +1433,30 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M11:AD11)</f>
         <v>1.5</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="2"/>
+        <f>L11+AE11</f>
         <v>1.5</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG12</f>
+        <v>15</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="4"/>
-        <v>5.8823529411764701</v>
+        <f>(AF11/AG11)*100</f>
+        <v>10</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH11&gt;=20,2,0),IF(AH11&gt;=40,3,0),IF(AH11&gt;=60,4,0),IF(AH11&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI11+0.2*AJ11</f>
         <v>0</v>
       </c>
       <c r="AL11" s="4"/>
@@ -1476,7 +1476,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -1502,30 +1502,30 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:AD12)</f>
         <v>1.25</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="2"/>
+        <f>L12+AE12</f>
         <v>1.25</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG13</f>
+        <v>15</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9019607843137258</v>
+        <f>(AF12/AG12)*100</f>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH12&gt;=20,2,0),IF(AH12&gt;=40,3,0),IF(AH12&gt;=60,4,0),IF(AH12&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI12+0.2*AJ12</f>
         <v>0</v>
       </c>
       <c r="AL12" s="4"/>
@@ -1545,7 +1545,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -1573,30 +1573,30 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M13:AD13)</f>
         <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="2"/>
+        <f>L13+AE13</f>
         <v>1</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG14</f>
+        <v>15</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <f>(AF13/AG13)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH13&gt;=20,2,0),IF(AH13&gt;=40,3,0),IF(AH13&gt;=60,4,0),IF(AH13&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI13+0.2*AJ13</f>
         <v>0</v>
       </c>
       <c r="AL13" s="4"/>
@@ -1618,7 +1618,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:K14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -1644,30 +1644,30 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M14:AD14)</f>
         <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="2"/>
+        <f>L14+AE14</f>
         <v>1</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG15</f>
+        <v>15</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <f>(AF14/AG14)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH14&gt;=20,2,0),IF(AH14&gt;=40,3,0),IF(AH14&gt;=60,4,0),IF(AH14&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI14+0.2*AJ14</f>
         <v>0</v>
       </c>
       <c r="AL14" s="4"/>
@@ -1675,7 +1675,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1687,19 +1687,19 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:K15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1707,36 +1707,38 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>SUM(M15:AD15)</f>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>L15+AE15</f>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG16</f>
+        <v>15</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
+        <f>(AF15/AG15)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH15&gt;=20,2,0),IF(AH15&gt;=40,3,0),IF(AH15&gt;=60,4,0),IF(AH15&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI15+0.2*AJ15</f>
         <v>0</v>
       </c>
       <c r="AL15" s="4"/>
@@ -1744,7 +1746,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1756,19 +1758,19 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:K16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1776,38 +1778,36 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(M16:AD16)</f>
+        <v>0.5</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>L16+AE16</f>
+        <v>0.5</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG17</f>
+        <v>15</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9215686274509802</v>
+        <f>(AF16/AG16)*100</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH16&gt;=20,2,0),IF(AH16&gt;=40,3,0),IF(AH16&gt;=60,4,0),IF(AH16&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI16+0.2*AJ16</f>
         <v>0</v>
       </c>
       <c r="AL16" s="4"/>
@@ -1827,7 +1827,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:K17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1849,30 +1849,30 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="2"/>
+        <f>L17+AE17</f>
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG18</f>
+        <v>15</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF17/AG17)*100</f>
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH17&gt;=20,2,0),IF(AH17&gt;=40,3,0),IF(AH17&gt;=60,4,0),IF(AH17&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI17+0.2*AJ17</f>
         <v>0</v>
       </c>
       <c r="AL17" s="4"/>
@@ -1892,7 +1892,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:K18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -1914,30 +1914,30 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="2"/>
+        <f>L18+AE18</f>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG19</f>
+        <v>15</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF18/AG18)*100</f>
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH18&gt;=20,2,0),IF(AH18&gt;=40,3,0),IF(AH18&gt;=60,4,0),IF(AH18&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI18+0.2*AJ18</f>
         <v>0</v>
       </c>
       <c r="AL18" s="4"/>
@@ -1957,7 +1957,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:K19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1979,30 +1979,30 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="2"/>
+        <f>L19+AE19</f>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG20</f>
+        <v>15</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF19/AG19)*100</f>
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH19&gt;=20,2,0),IF(AH19&gt;=40,3,0),IF(AH19&gt;=60,4,0),IF(AH19&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI19+0.2*AJ19</f>
         <v>0</v>
       </c>
       <c r="AL19" s="4"/>
@@ -2022,7 +2022,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:K20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -2044,30 +2044,30 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="2"/>
+        <f>L20+AE20</f>
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG21</f>
+        <v>15</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF20/AG20)*100</f>
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH20&gt;=20,2,0),IF(AH20&gt;=40,3,0),IF(AH20&gt;=60,4,0),IF(AH20&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI20+0.2*AJ20</f>
         <v>0</v>
       </c>
       <c r="AL20" s="4"/>
@@ -2087,7 +2087,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2109,30 +2109,30 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="2"/>
+        <f>L21+AE21</f>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG22</f>
+        <v>15</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF21/AG21)*100</f>
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH21&gt;=20,2,0),IF(AH21&gt;=40,3,0),IF(AH21&gt;=60,4,0),IF(AH21&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI21+0.2*AJ21</f>
         <v>0</v>
       </c>
       <c r="AL21" s="4"/>
@@ -2152,7 +2152,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2174,30 +2174,30 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="2"/>
+        <f>L22+AE22</f>
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG23</f>
+        <v>15</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF22/AG22)*100</f>
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH22&gt;=20,2,0),IF(AH22&gt;=40,3,0),IF(AH22&gt;=60,4,0),IF(AH22&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI22+0.2*AJ22</f>
         <v>0</v>
       </c>
       <c r="AL22" s="4"/>
@@ -2217,7 +2217,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -2241,30 +2241,30 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="2"/>
+        <f>L23+AE23</f>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG24</f>
+        <v>15</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF23/AG23)*100</f>
         <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH23&gt;=20,2,0),IF(AH23&gt;=40,3,0),IF(AH23&gt;=60,4,0),IF(AH23&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI23+0.2*AJ23</f>
         <v>0</v>
       </c>
       <c r="AL23" s="4"/>
@@ -2284,7 +2284,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
@@ -2306,30 +2306,30 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="2"/>
+        <f>L24+AE24</f>
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG25</f>
+        <v>15</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF24/AG24)*100</f>
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH24&gt;=20,2,0),IF(AH24&gt;=40,3,0),IF(AH24&gt;=60,4,0),IF(AH24&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI24+0.2*AJ24</f>
         <v>0</v>
       </c>
       <c r="AL24" s="4"/>
@@ -2349,7 +2349,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2371,30 +2371,30 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="2"/>
+        <f>L25+AE25</f>
         <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG26</f>
+        <v>15</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF25/AG25)*100</f>
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH25&gt;=20,2,0),IF(AH25&gt;=40,3,0),IF(AH25&gt;=60,4,0),IF(AH25&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI25+0.2*AJ25</f>
         <v>0</v>
       </c>
       <c r="AL25" s="4"/>
@@ -2414,7 +2414,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C26:K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -2436,30 +2436,30 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="2"/>
+        <f>L26+AE26</f>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG27</f>
+        <v>15</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF26/AG26)*100</f>
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH26&gt;=20,2,0),IF(AH26&gt;=40,3,0),IF(AH26&gt;=60,4,0),IF(AH26&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI26+0.2*AJ26</f>
         <v>0</v>
       </c>
       <c r="AL26" s="4"/>
@@ -2479,7 +2479,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2501,30 +2501,30 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="2"/>
+        <f>L27+AE27</f>
         <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG28</f>
+        <v>15</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF27/AG27)*100</f>
         <v>0</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH27&gt;=20,2,0),IF(AH27&gt;=40,3,0),IF(AH27&gt;=60,4,0),IF(AH27&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI27+0.2*AJ27</f>
         <v>0</v>
       </c>
       <c r="AL27" s="4"/>
@@ -2544,7 +2544,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2566,30 +2566,30 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="2"/>
+        <f>L28+AE28</f>
         <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG29</f>
+        <v>15</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF28/AG28)*100</f>
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH28&gt;=20,2,0),IF(AH28&gt;=40,3,0),IF(AH28&gt;=60,4,0),IF(AH28&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI28+0.2*AJ28</f>
         <v>0</v>
       </c>
       <c r="AL28" s="4"/>
@@ -2609,7 +2609,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="1"/>
@@ -2631,30 +2631,30 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="2"/>
+        <f>L29+AE29</f>
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG30</f>
+        <v>15</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF29/AG29)*100</f>
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH29&gt;=20,2,0),IF(AH29&gt;=40,3,0),IF(AH29&gt;=60,4,0),IF(AH29&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI29+0.2*AJ29</f>
         <v>0</v>
       </c>
       <c r="AL29" s="4"/>
@@ -2674,7 +2674,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="1"/>
@@ -2696,30 +2696,30 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="2"/>
+        <f>L30+AE30</f>
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG31</f>
+        <v>15</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF30/AG30)*100</f>
         <v>0</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH30&gt;=20,2,0),IF(AH30&gt;=40,3,0),IF(AH30&gt;=60,4,0),IF(AH30&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI30+0.2*AJ30</f>
         <v>0</v>
       </c>
       <c r="AL30" s="4"/>
@@ -2739,7 +2739,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="1"/>
@@ -2761,30 +2761,30 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="2"/>
+        <f>L31+AE31</f>
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG32</f>
+        <v>15</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF31/AG31)*100</f>
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH31&gt;=20,2,0),IF(AH31&gt;=40,3,0),IF(AH31&gt;=60,4,0),IF(AH31&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI31+0.2*AJ31</f>
         <v>0</v>
       </c>
       <c r="AL31" s="4"/>
@@ -2804,7 +2804,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="1"/>
@@ -2826,30 +2826,30 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="2"/>
+        <f>L32+AE32</f>
         <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG33</f>
+        <v>15</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF32/AG32)*100</f>
         <v>0</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH32&gt;=20,2,0),IF(AH32&gt;=40,3,0),IF(AH32&gt;=60,4,0),IF(AH32&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI32+0.2*AJ32</f>
         <v>0</v>
       </c>
       <c r="AL32" s="4"/>
@@ -2869,7 +2869,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="1"/>
@@ -2891,30 +2891,30 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M33:AD33)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="2"/>
+        <f>L33+AE33</f>
         <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG34</f>
+        <v>15</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF33/AG33)*100</f>
         <v>0</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH33&gt;=20,2,0),IF(AH33&gt;=40,3,0),IF(AH33&gt;=60,4,0),IF(AH33&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI33+0.2*AJ33</f>
         <v>0</v>
       </c>
       <c r="AL33" s="4"/>
@@ -2934,7 +2934,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="1"/>
@@ -2956,30 +2956,30 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M34:AD34)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="2"/>
+        <f>L34+AE34</f>
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG35</f>
+        <v>15</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF34/AG34)*100</f>
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH34&gt;=20,2,0),IF(AH34&gt;=40,3,0),IF(AH34&gt;=60,4,0),IF(AH34&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI34+0.2*AJ34</f>
         <v>0</v>
       </c>
       <c r="AL34" s="4"/>
@@ -2999,7 +2999,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1"/>
@@ -3021,30 +3021,30 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M35:AD35)</f>
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="2"/>
+        <f>L35+AE35</f>
         <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG36</f>
+        <v>15</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF35/AG35)*100</f>
         <v>0</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH35&gt;=20,2,0),IF(AH35&gt;=40,3,0),IF(AH35&gt;=60,4,0),IF(AH35&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
         <v>0</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI35+0.2*AJ35</f>
         <v>0</v>
       </c>
       <c r="AL35" s="4"/>
@@ -3064,7 +3064,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="1"/>
@@ -3086,30 +3086,30 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M36:AD36)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="2"/>
+        <f>L36+AE36</f>
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG37</f>
+        <v>15</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF36/AG36)*100</f>
         <v>0</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH36&gt;=20,2,0),IF(AH36&gt;=40,3,0),IF(AH36&gt;=60,4,0),IF(AH36&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ36" s="3">
         <v>0</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI36+0.2*AJ36</f>
         <v>0</v>
       </c>
       <c r="AL36" s="4"/>
@@ -3129,7 +3129,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="1"/>
@@ -3151,30 +3151,30 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M37:AD37)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="2"/>
+        <f>L37+AE37</f>
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG38</f>
+        <v>15</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF37/AG37)*100</f>
         <v>0</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH37&gt;=20,2,0),IF(AH37&gt;=40,3,0),IF(AH37&gt;=60,4,0),IF(AH37&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ37" s="3">
         <v>0</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI37+0.2*AJ37</f>
         <v>0</v>
       </c>
       <c r="AL37" s="4"/>
@@ -3194,7 +3194,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="1"/>
@@ -3216,30 +3216,30 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M38:AD38)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" si="2"/>
+        <f>L38+AE38</f>
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG39</f>
+        <v>15</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF38/AG38)*100</f>
         <v>0</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH38&gt;=20,2,0),IF(AH38&gt;=40,3,0),IF(AH38&gt;=60,4,0),IF(AH38&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="3">
         <v>0</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI38+0.2*AJ38</f>
         <v>0</v>
       </c>
       <c r="AL38" s="4"/>
@@ -3259,7 +3259,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="1"/>
@@ -3281,30 +3281,30 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M39:AD39)</f>
         <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" si="2"/>
+        <f>L39+AE39</f>
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG40</f>
+        <v>15</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF39/AG39)*100</f>
         <v>0</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH39&gt;=20,2,0),IF(AH39&gt;=40,3,0),IF(AH39&gt;=60,4,0),IF(AH39&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="3">
         <v>0</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI39+0.2*AJ39</f>
         <v>0</v>
       </c>
       <c r="AL39" s="4"/>
@@ -3324,7 +3324,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="1"/>
@@ -3346,30 +3346,30 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M40:AD40)</f>
         <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="2"/>
+        <f>L40+AE40</f>
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG41</f>
+        <v>15</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF40/AG40)*100</f>
         <v>0</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH40&gt;=20,2,0),IF(AH40&gt;=40,3,0),IF(AH40&gt;=60,4,0),IF(AH40&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ40" s="3">
         <v>0</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI40+0.2*AJ40</f>
         <v>0</v>
       </c>
       <c r="AL40" s="4"/>
@@ -3389,7 +3389,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="1"/>
@@ -3411,30 +3411,30 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M41:AD41)</f>
         <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="2"/>
+        <f>L41+AE41</f>
         <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG42</f>
+        <v>15</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF41/AG41)*100</f>
         <v>0</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH41&gt;=20,2,0),IF(AH41&gt;=40,3,0),IF(AH41&gt;=60,4,0),IF(AH41&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="3">
         <v>0</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI41+0.2*AJ41</f>
         <v>0</v>
       </c>
       <c r="AL41" s="4"/>
@@ -3454,7 +3454,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="1"/>
@@ -3476,30 +3476,30 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M42:AD42)</f>
         <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="2"/>
+        <f>L42+AE42</f>
         <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>AG43</f>
+        <v>15</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF42/AG42)*100</f>
         <v>0</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH42&gt;=20,2,0),IF(AH42&gt;=40,3,0),IF(AH42&gt;=60,4,0),IF(AH42&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ42" s="3">
         <v>0</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI42+0.2*AJ42</f>
         <v>0</v>
       </c>
       <c r="AL42" s="4"/>
@@ -3519,86 +3519,82 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" ref="L43" si="7">SUM(C43:K43)</f>
+        <f t="shared" ref="L43" si="0">SUM(C43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
       <c r="AE43" s="1">
-        <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
-        <v>25.5</v>
+        <f t="shared" ref="AE43" si="1">SUM(M43:AD43)</f>
+        <v>15</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" ref="AF43" si="9">L43+AE43</f>
-        <v>25.5</v>
+        <f t="shared" ref="AF43" si="2">L43+AE43</f>
+        <v>15</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
+        <f t="shared" ref="AH43" si="3">(AF43/AG43)*100</f>
         <v>100</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" ref="AI43" si="11">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
+        <f t="shared" ref="AI43" si="4">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ43" s="3">
         <v>0</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" ref="AK43" si="12">0.8*AI43+0.2*AJ43</f>
+        <f t="shared" ref="AK43" si="5">0.8*AI43+0.2*AJ43</f>
         <v>4</v>
       </c>
       <c r="AL43" s="4"/>
@@ -41845,7 +41841,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL42">
-    <sortCondition descending="1" ref="AH2:AH42"/>
+    <sortCondition descending="1" ref="AF2:AF42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABADEDE-A730-4F6A-8488-4349F895C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC0CEA-BD3F-416C-AB6B-98DE7CE94EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <f>SUM(C2:K2)</f>
+        <f t="shared" ref="L2:L42" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -760,30 +760,30 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
-        <f>SUM(M2:AD2)</f>
+        <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
         <v>11.5</v>
       </c>
       <c r="AF2" s="1">
-        <f>L2+AE2</f>
+        <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
         <v>11.5</v>
       </c>
       <c r="AG2" s="1">
-        <f>AG3</f>
+        <f t="shared" ref="AG2:AG42" si="3">AG3</f>
         <v>15</v>
       </c>
       <c r="AH2" s="3">
-        <f>(AF2/AG2)*100</f>
+        <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
         <v>76.666666666666671</v>
       </c>
       <c r="AI2" s="3">
-        <f>MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
+        <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
-        <f>0.8*AI2+0.2*AJ2</f>
+        <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
         <v>3.2</v>
       </c>
       <c r="AL2" s="4"/>
@@ -803,7 +803,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
@@ -834,36 +834,38 @@
       <c r="Z3" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
-        <f>SUM(M3:AD3)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="AF3" s="1">
-        <f>L3+AE3</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AG3" s="1">
-        <f>AG4</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH3" s="3">
-        <f>(AF3/AG3)*100</f>
-        <v>73.333333333333329</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="AI3" s="3">
-        <f>MAX(IF(AH3&gt;=20,2,0),IF(AH3&gt;=40,3,0),IF(AH3&gt;=60,4,0),IF(AH3&gt;=80,5,0))</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="3">
-        <f>0.8*AI3+0.2*AJ3</f>
-        <v>3.2</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AL3" s="4"/>
     </row>
@@ -882,7 +884,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
@@ -918,30 +920,30 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
-        <f>SUM(M4:AD4)</f>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="AF4" s="1">
-        <f>L4+AE4</f>
+        <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
       <c r="AG4" s="1">
-        <f>AG5</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH4" s="3">
-        <f>(AF4/AG4)*100</f>
+        <f t="shared" si="4"/>
         <v>71.666666666666671</v>
       </c>
       <c r="AI4" s="3">
-        <f>MAX(IF(AH4&gt;=20,2,0),IF(AH4&gt;=40,3,0),IF(AH4&gt;=60,4,0),IF(AH4&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
-        <f>0.8*AI4+0.2*AJ4</f>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="AL4" s="4"/>
@@ -961,7 +963,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
@@ -993,30 +995,30 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
-        <f>SUM(M5:AD5)</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="AF5" s="1">
-        <f>L5+AE5</f>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="AG5" s="1">
-        <f>AG6</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH5" s="3">
-        <f>(AF5/AG5)*100</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="AI5" s="3">
-        <f>MAX(IF(AH5&gt;=20,2,0),IF(AH5&gt;=40,3,0),IF(AH5&gt;=60,4,0),IF(AH5&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <f>0.8*AI5+0.2*AJ5</f>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="AL5" s="4"/>
@@ -1038,7 +1040,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
@@ -1065,36 +1067,38 @@
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1">
+        <v>2</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
-        <f>SUM(M6:AD6)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="AF6" s="1">
-        <f>L6+AE6</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AG6" s="1">
-        <f>AG7</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH6" s="3">
-        <f>(AF6/AG6)*100</f>
-        <v>66.666666666666657</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="AI6" s="3">
-        <f>MAX(IF(AH6&gt;=20,2,0),IF(AH6&gt;=40,3,0),IF(AH6&gt;=60,4,0),IF(AH6&gt;=80,5,0))</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="3">
-        <f>0.8*AI6+0.2*AJ6</f>
-        <v>3.2</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AL6" s="4"/>
     </row>
@@ -1113,7 +1117,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="1"/>
@@ -1147,30 +1151,30 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
-        <f>SUM(M7:AD7)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AF7" s="1">
-        <f>L7+AE7</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AG7" s="1">
-        <f>AG8</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH7" s="3">
-        <f>(AF7/AG7)*100</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="AI7" s="3">
-        <f>MAX(IF(AH7&gt;=20,2,0),IF(AH7&gt;=40,3,0),IF(AH7&gt;=60,4,0),IF(AH7&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <f>0.8*AI7+0.2*AJ7</f>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="AL7" s="4"/>
@@ -1190,7 +1194,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -1218,30 +1222,30 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
-        <f>SUM(M8:AD8)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AF8" s="1">
-        <f>L8+AE8</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AG8" s="1">
-        <f>AG9</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH8" s="3">
-        <f>(AF8/AG8)*100</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="AI8" s="3">
-        <f>MAX(IF(AH8&gt;=20,2,0),IF(AH8&gt;=40,3,0),IF(AH8&gt;=60,4,0),IF(AH8&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f>0.8*AI8+0.2*AJ8</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="AL8" s="4"/>
@@ -1261,7 +1265,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -1286,36 +1290,38 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="1">
+        <v>0.75</v>
+      </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
-        <f>SUM(M9:AD9)</f>
-        <v>5.75</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
       <c r="AF9" s="1">
-        <f>L9+AE9</f>
-        <v>5.75</v>
+        <f t="shared" si="2"/>
+        <v>6.5</v>
       </c>
       <c r="AG9" s="1">
-        <f>AG10</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH9" s="3">
-        <f>(AF9/AG9)*100</f>
-        <v>38.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>43.333333333333336</v>
       </c>
       <c r="AI9" s="3">
-        <f>MAX(IF(AH9&gt;=20,2,0),IF(AH9&gt;=40,3,0),IF(AH9&gt;=60,4,0),IF(AH9&gt;=80,5,0))</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f>0.8*AI9+0.2*AJ9</f>
-        <v>1.6</v>
+        <f t="shared" si="6"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL9" s="4"/>
     </row>
@@ -1334,7 +1340,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -1364,30 +1370,30 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
-        <f>SUM(M10:AD10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AF10" s="1">
-        <f>L10+AE10</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG10" s="1">
-        <f>AG11</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH10" s="3">
-        <f>(AF10/AG10)*100</f>
+        <f t="shared" si="4"/>
         <v>13.333333333333334</v>
       </c>
       <c r="AI10" s="3">
-        <f>MAX(IF(AH10&gt;=20,2,0),IF(AH10&gt;=40,3,0),IF(AH10&gt;=60,4,0),IF(AH10&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f>0.8*AI10+0.2*AJ10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL10" s="4"/>
@@ -1407,7 +1413,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
@@ -1433,30 +1439,30 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
-        <f>SUM(M11:AD11)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="AF11" s="1">
-        <f>L11+AE11</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AG11" s="1">
-        <f>AG12</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH11" s="3">
-        <f>(AF11/AG11)*100</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AI11" s="3">
-        <f>MAX(IF(AH11&gt;=20,2,0),IF(AH11&gt;=40,3,0),IF(AH11&gt;=60,4,0),IF(AH11&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f>0.8*AI11+0.2*AJ11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL11" s="4"/>
@@ -1476,7 +1482,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -1502,30 +1508,30 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
-        <f>SUM(M12:AD12)</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="AF12" s="1">
-        <f>L12+AE12</f>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="AG12" s="1">
-        <f>AG13</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH12" s="3">
-        <f>(AF12/AG12)*100</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="AI12" s="3">
-        <f>MAX(IF(AH12&gt;=20,2,0),IF(AH12&gt;=40,3,0),IF(AH12&gt;=60,4,0),IF(AH12&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f>0.8*AI12+0.2*AJ12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL12" s="4"/>
@@ -1545,7 +1551,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -1573,30 +1579,30 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
-        <f>SUM(M13:AD13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <f>L13+AE13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG13" s="1">
-        <f>AG14</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH13" s="3">
-        <f>(AF13/AG13)*100</f>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AI13" s="3">
-        <f>MAX(IF(AH13&gt;=20,2,0),IF(AH13&gt;=40,3,0),IF(AH13&gt;=60,4,0),IF(AH13&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <f>0.8*AI13+0.2*AJ13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL13" s="4"/>
@@ -1618,7 +1624,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f>SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -1644,30 +1650,30 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
-        <f>SUM(M14:AD14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <f>L14+AE14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG14" s="1">
-        <f>AG15</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH14" s="3">
-        <f>(AF14/AG14)*100</f>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AI14" s="3">
-        <f>MAX(IF(AH14&gt;=20,2,0),IF(AH14&gt;=40,3,0),IF(AH14&gt;=60,4,0),IF(AH14&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <f>0.8*AI14+0.2*AJ14</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL14" s="4"/>
@@ -1687,7 +1693,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
@@ -1715,30 +1721,30 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
-        <f>SUM(M15:AD15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <f>L15+AE15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG15" s="1">
-        <f>AG16</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH15" s="3">
-        <f>(AF15/AG15)*100</f>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AI15" s="3">
-        <f>MAX(IF(AH15&gt;=20,2,0),IF(AH15&gt;=40,3,0),IF(AH15&gt;=60,4,0),IF(AH15&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <f>0.8*AI15+0.2*AJ15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL15" s="4"/>
@@ -1758,7 +1764,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -1784,30 +1790,30 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
-        <f>SUM(M16:AD16)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="AF16" s="1">
-        <f>L16+AE16</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AG16" s="1">
-        <f>AG17</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH16" s="3">
-        <f>(AF16/AG16)*100</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AI16" s="3">
-        <f>MAX(IF(AH16&gt;=20,2,0),IF(AH16&gt;=40,3,0),IF(AH16&gt;=60,4,0),IF(AH16&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <f>0.8*AI16+0.2*AJ16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL16" s="4"/>
@@ -1827,7 +1833,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1849,30 +1855,30 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1">
-        <f>SUM(M17:AD17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <f>L17+AE17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <f>AG18</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH17" s="3">
-        <f>(AF17/AG17)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <f>MAX(IF(AH17&gt;=20,2,0),IF(AH17&gt;=40,3,0),IF(AH17&gt;=60,4,0),IF(AH17&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <f>0.8*AI17+0.2*AJ17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL17" s="4"/>
@@ -1892,7 +1898,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -1914,30 +1920,30 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1">
-        <f>SUM(M18:AD18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f>L18+AE18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f>AG19</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH18" s="3">
-        <f>(AF18/AG18)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <f>MAX(IF(AH18&gt;=20,2,0),IF(AH18&gt;=40,3,0),IF(AH18&gt;=60,4,0),IF(AH18&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <f>0.8*AI18+0.2*AJ18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL18" s="4"/>
@@ -1957,7 +1963,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1979,30 +1985,30 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1">
-        <f>SUM(M19:AD19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f>L19+AE19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f>AG20</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH19" s="3">
-        <f>(AF19/AG19)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <f>MAX(IF(AH19&gt;=20,2,0),IF(AH19&gt;=40,3,0),IF(AH19&gt;=60,4,0),IF(AH19&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <f>0.8*AI19+0.2*AJ19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL19" s="4"/>
@@ -2022,7 +2028,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -2044,30 +2050,30 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1">
-        <f>SUM(M20:AD20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f>L20+AE20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <f>AG21</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH20" s="3">
-        <f>(AF20/AG20)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <f>MAX(IF(AH20&gt;=20,2,0),IF(AH20&gt;=40,3,0),IF(AH20&gt;=60,4,0),IF(AH20&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <f>0.8*AI20+0.2*AJ20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL20" s="4"/>
@@ -2087,7 +2093,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2109,30 +2115,30 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1">
-        <f>SUM(M21:AD21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f>L21+AE21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f>AG22</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH21" s="3">
-        <f>(AF21/AG21)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <f>MAX(IF(AH21&gt;=20,2,0),IF(AH21&gt;=40,3,0),IF(AH21&gt;=60,4,0),IF(AH21&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <f>0.8*AI21+0.2*AJ21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL21" s="4"/>
@@ -2152,7 +2158,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2174,30 +2180,30 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1">
-        <f>SUM(M22:AD22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f>L22+AE22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <f>AG23</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH22" s="3">
-        <f>(AF22/AG22)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <f>MAX(IF(AH22&gt;=20,2,0),IF(AH22&gt;=40,3,0),IF(AH22&gt;=60,4,0),IF(AH22&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <f>0.8*AI22+0.2*AJ22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL22" s="4"/>
@@ -2217,7 +2223,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -2241,30 +2247,30 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1">
-        <f>SUM(M23:AD23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f>L23+AE23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f>AG24</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH23" s="3">
-        <f>(AF23/AG23)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <f>MAX(IF(AH23&gt;=20,2,0),IF(AH23&gt;=40,3,0),IF(AH23&gt;=60,4,0),IF(AH23&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <f>0.8*AI23+0.2*AJ23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL23" s="4"/>
@@ -2284,7 +2290,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
@@ -2306,30 +2312,30 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1">
-        <f>SUM(M24:AD24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <f>L24+AE24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <f>AG25</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH24" s="3">
-        <f>(AF24/AG24)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <f>MAX(IF(AH24&gt;=20,2,0),IF(AH24&gt;=40,3,0),IF(AH24&gt;=60,4,0),IF(AH24&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <f>0.8*AI24+0.2*AJ24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL24" s="4"/>
@@ -2349,7 +2355,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2371,30 +2377,30 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1">
-        <f>SUM(M25:AD25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <f>L25+AE25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <f>AG26</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH25" s="3">
-        <f>(AF25/AG25)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <f>MAX(IF(AH25&gt;=20,2,0),IF(AH25&gt;=40,3,0),IF(AH25&gt;=60,4,0),IF(AH25&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <f>0.8*AI25+0.2*AJ25</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL25" s="4"/>
@@ -2414,7 +2420,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -2436,30 +2442,30 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1">
-        <f>SUM(M26:AD26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f>L26+AE26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f>AG27</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH26" s="3">
-        <f>(AF26/AG26)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <f>MAX(IF(AH26&gt;=20,2,0),IF(AH26&gt;=40,3,0),IF(AH26&gt;=60,4,0),IF(AH26&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <f>0.8*AI26+0.2*AJ26</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL26" s="4"/>
@@ -2479,7 +2485,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2501,30 +2507,30 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1">
-        <f>SUM(M27:AD27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <f>L27+AE27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <f>AG28</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH27" s="3">
-        <f>(AF27/AG27)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="3">
-        <f>MAX(IF(AH27&gt;=20,2,0),IF(AH27&gt;=40,3,0),IF(AH27&gt;=60,4,0),IF(AH27&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <f>0.8*AI27+0.2*AJ27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL27" s="4"/>
@@ -2544,7 +2550,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2566,30 +2572,30 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1">
-        <f>SUM(M28:AD28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <f>L28+AE28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <f>AG29</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH28" s="3">
-        <f>(AF28/AG28)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <f>MAX(IF(AH28&gt;=20,2,0),IF(AH28&gt;=40,3,0),IF(AH28&gt;=60,4,0),IF(AH28&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <f>0.8*AI28+0.2*AJ28</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL28" s="4"/>
@@ -2609,7 +2615,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f>SUM(C29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="1"/>
@@ -2631,30 +2637,30 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1">
-        <f>SUM(M29:AD29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <f>L29+AE29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <f>AG30</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH29" s="3">
-        <f>(AF29/AG29)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <f>MAX(IF(AH29&gt;=20,2,0),IF(AH29&gt;=40,3,0),IF(AH29&gt;=60,4,0),IF(AH29&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <f>0.8*AI29+0.2*AJ29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL29" s="4"/>
@@ -2674,7 +2680,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f>SUM(C30:K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="1"/>
@@ -2696,30 +2702,30 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1">
-        <f>SUM(M30:AD30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <f>L30+AE30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <f>AG31</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH30" s="3">
-        <f>(AF30/AG30)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI30" s="3">
-        <f>MAX(IF(AH30&gt;=20,2,0),IF(AH30&gt;=40,3,0),IF(AH30&gt;=60,4,0),IF(AH30&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <f>0.8*AI30+0.2*AJ30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL30" s="4"/>
@@ -2739,7 +2745,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f>SUM(C31:K31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="1"/>
@@ -2761,30 +2767,30 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1">
-        <f>SUM(M31:AD31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <f>L31+AE31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <f>AG32</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH31" s="3">
-        <f>(AF31/AG31)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <f>MAX(IF(AH31&gt;=20,2,0),IF(AH31&gt;=40,3,0),IF(AH31&gt;=60,4,0),IF(AH31&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <f>0.8*AI31+0.2*AJ31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL31" s="4"/>
@@ -2804,7 +2810,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f>SUM(C32:K32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="1"/>
@@ -2826,30 +2832,30 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1">
-        <f>SUM(M32:AD32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <f>L32+AE32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <f>AG33</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH32" s="3">
-        <f>(AF32/AG32)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI32" s="3">
-        <f>MAX(IF(AH32&gt;=20,2,0),IF(AH32&gt;=40,3,0),IF(AH32&gt;=60,4,0),IF(AH32&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <f>0.8*AI32+0.2*AJ32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL32" s="4"/>
@@ -2869,7 +2875,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f>SUM(C33:K33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="1"/>
@@ -2891,30 +2897,30 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1">
-        <f>SUM(M33:AD33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <f>L33+AE33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <f>AG34</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH33" s="3">
-        <f>(AF33/AG33)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI33" s="3">
-        <f>MAX(IF(AH33&gt;=20,2,0),IF(AH33&gt;=40,3,0),IF(AH33&gt;=60,4,0),IF(AH33&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <f>0.8*AI33+0.2*AJ33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL33" s="4"/>
@@ -2934,7 +2940,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f>SUM(C34:K34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="1"/>
@@ -2956,30 +2962,30 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1">
-        <f>SUM(M34:AD34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <f>L34+AE34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <f>AG35</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH34" s="3">
-        <f>(AF34/AG34)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <f>MAX(IF(AH34&gt;=20,2,0),IF(AH34&gt;=40,3,0),IF(AH34&gt;=60,4,0),IF(AH34&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <f>0.8*AI34+0.2*AJ34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL34" s="4"/>
@@ -2999,7 +3005,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f>SUM(C35:K35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="1"/>
@@ -3021,30 +3027,30 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1">
-        <f>SUM(M35:AD35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <f>L35+AE35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <f>AG36</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH35" s="3">
-        <f>(AF35/AG35)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI35" s="3">
-        <f>MAX(IF(AH35&gt;=20,2,0),IF(AH35&gt;=40,3,0),IF(AH35&gt;=60,4,0),IF(AH35&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
         <v>0</v>
       </c>
       <c r="AK35" s="3">
-        <f>0.8*AI35+0.2*AJ35</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL35" s="4"/>
@@ -3064,7 +3070,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f>SUM(C36:K36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="1"/>
@@ -3086,30 +3092,30 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1">
-        <f>SUM(M36:AD36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <f>L36+AE36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <f>AG37</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH36" s="3">
-        <f>(AF36/AG36)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI36" s="3">
-        <f>MAX(IF(AH36&gt;=20,2,0),IF(AH36&gt;=40,3,0),IF(AH36&gt;=60,4,0),IF(AH36&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="3">
         <v>0</v>
       </c>
       <c r="AK36" s="3">
-        <f>0.8*AI36+0.2*AJ36</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL36" s="4"/>
@@ -3129,7 +3135,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f>SUM(C37:K37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="1"/>
@@ -3151,30 +3157,30 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1">
-        <f>SUM(M37:AD37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <f>L37+AE37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <f>AG38</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH37" s="3">
-        <f>(AF37/AG37)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI37" s="3">
-        <f>MAX(IF(AH37&gt;=20,2,0),IF(AH37&gt;=40,3,0),IF(AH37&gt;=60,4,0),IF(AH37&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="3">
         <v>0</v>
       </c>
       <c r="AK37" s="3">
-        <f>0.8*AI37+0.2*AJ37</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL37" s="4"/>
@@ -3194,7 +3200,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f>SUM(C38:K38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="1"/>
@@ -3216,30 +3222,30 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1">
-        <f>SUM(M38:AD38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <f>L38+AE38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <f>AG39</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH38" s="3">
-        <f>(AF38/AG38)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI38" s="3">
-        <f>MAX(IF(AH38&gt;=20,2,0),IF(AH38&gt;=40,3,0),IF(AH38&gt;=60,4,0),IF(AH38&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="3">
         <v>0</v>
       </c>
       <c r="AK38" s="3">
-        <f>0.8*AI38+0.2*AJ38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL38" s="4"/>
@@ -3259,7 +3265,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f>SUM(C39:K39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="1"/>
@@ -3281,30 +3287,30 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
-        <f>SUM(M39:AD39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <f>L39+AE39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <f>AG40</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH39" s="3">
-        <f>(AF39/AG39)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI39" s="3">
-        <f>MAX(IF(AH39&gt;=20,2,0),IF(AH39&gt;=40,3,0),IF(AH39&gt;=60,4,0),IF(AH39&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="3">
         <v>0</v>
       </c>
       <c r="AK39" s="3">
-        <f>0.8*AI39+0.2*AJ39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL39" s="4"/>
@@ -3324,7 +3330,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f>SUM(C40:K40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="1"/>
@@ -3346,30 +3352,30 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1">
-        <f>SUM(M40:AD40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <f>L40+AE40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <f>AG41</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH40" s="3">
-        <f>(AF40/AG40)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI40" s="3">
-        <f>MAX(IF(AH40&gt;=20,2,0),IF(AH40&gt;=40,3,0),IF(AH40&gt;=60,4,0),IF(AH40&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="3">
         <v>0</v>
       </c>
       <c r="AK40" s="3">
-        <f>0.8*AI40+0.2*AJ40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL40" s="4"/>
@@ -3389,7 +3395,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f>SUM(C41:K41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="1"/>
@@ -3411,30 +3417,30 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1">
-        <f>SUM(M41:AD41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <f>L41+AE41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <f>AG42</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH41" s="3">
-        <f>(AF41/AG41)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI41" s="3">
-        <f>MAX(IF(AH41&gt;=20,2,0),IF(AH41&gt;=40,3,0),IF(AH41&gt;=60,4,0),IF(AH41&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="3">
         <v>0</v>
       </c>
       <c r="AK41" s="3">
-        <f>0.8*AI41+0.2*AJ41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL41" s="4"/>
@@ -3454,7 +3460,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f>SUM(C42:K42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="1"/>
@@ -3476,30 +3482,30 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1">
-        <f>SUM(M42:AD42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <f>L42+AE42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <f>AG43</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AH42" s="3">
-        <f>(AF42/AG42)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI42" s="3">
-        <f>MAX(IF(AH42&gt;=20,2,0),IF(AH42&gt;=40,3,0),IF(AH42&gt;=60,4,0),IF(AH42&gt;=80,5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="3">
         <v>0</v>
       </c>
       <c r="AK42" s="3">
-        <f>0.8*AI42+0.2*AJ42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL42" s="4"/>
@@ -3519,7 +3525,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" ref="L43" si="0">SUM(C43:K43)</f>
+        <f t="shared" ref="L43" si="7">SUM(C43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="1"/>
@@ -3571,11 +3577,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1">
-        <f t="shared" ref="AE43" si="1">SUM(M43:AD43)</f>
+        <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
         <v>15</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" ref="AF43" si="2">L43+AE43</f>
+        <f t="shared" ref="AF43" si="9">L43+AE43</f>
         <v>15</v>
       </c>
       <c r="AG43" s="1">
@@ -3583,18 +3589,18 @@
         <v>15</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" ref="AH43" si="3">(AF43/AG43)*100</f>
+        <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
         <v>100</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" ref="AI43" si="4">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
+        <f t="shared" ref="AI43" si="11">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ43" s="3">
         <v>0</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" ref="AK43" si="5">0.8*AI43+0.2*AJ43</f>
+        <f t="shared" ref="AK43" si="12">0.8*AI43+0.2*AJ43</f>
         <v>4</v>
       </c>
       <c r="AL43" s="4"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC0CEA-BD3F-416C-AB6B-98DE7CE94EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93574838-ADB6-4B2B-986F-632055B95D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -916,16 +916,18 @@
         <v>1</v>
       </c>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <f t="shared" si="1"/>
-        <v>10.75</v>
+        <v>12.75</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="2"/>
-        <v>10.75</v>
+        <v>12.75</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="3"/>
@@ -933,18 +935,18 @@
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="4"/>
-        <v>71.666666666666671</v>
+        <v>85</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
         <f t="shared" si="6"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="4"/>
     </row>
@@ -1575,16 +1577,18 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="1">
+        <v>10</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="3"/>
@@ -1592,18 +1596,18 @@
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL13" s="4"/>
     </row>
@@ -1717,16 +1721,18 @@
         <v>1</v>
       </c>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="1">
+        <v>10.25</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11.25</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11.25</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="3"/>
@@ -1734,18 +1740,18 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>75</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL15" s="4"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93574838-ADB6-4B2B-986F-632055B95D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF041B-4365-4213-8759-3FD2D409C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L42" si="0">SUM(C2:K2)</f>
+        <f>SUM(C2:K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -756,42 +756,44 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="1">
+        <v>5</v>
+      </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE42" si="1">SUM(M2:AD2)</f>
-        <v>11.5</v>
+        <f>SUM(M2:AD2)</f>
+        <v>16.5</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF42" si="2">L2+AE2</f>
-        <v>11.5</v>
+        <f>L2+AE2</f>
+        <v>16.5</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" ref="AG2:AG42" si="3">AG3</f>
+        <f>AG3</f>
         <v>15</v>
       </c>
       <c r="AH2" s="3">
-        <f t="shared" ref="AH2:AH42" si="4">(AF2/AG2)*100</f>
-        <v>76.666666666666671</v>
+        <f>(AF2/AG2)*100</f>
+        <v>110.00000000000001</v>
       </c>
       <c r="AI2" s="3">
-        <f t="shared" ref="AI2:AI42" si="5">MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
-        <v>4</v>
+        <f>MAX(IF(AH2&gt;=20,2,0),IF(AH2&gt;=40,3,0),IF(AH2&gt;=60,4,0),IF(AH2&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
-        <f t="shared" ref="AK2:AK42" si="6">0.8*AI2+0.2*AJ2</f>
-        <v>3.2</v>
+        <f>0.8*AI2+0.2*AJ2</f>
+        <v>4</v>
       </c>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -803,68 +805,64 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
         <v>3</v>
       </c>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1">
+        <v>5</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>SUM(M3:AD3)</f>
+        <v>15.5</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>L3+AE3</f>
+        <v>15.5</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="3"/>
+        <f>AG4</f>
         <v>15</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>(AF3/AG3)*100</f>
+        <v>103.33333333333334</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH3&gt;=20,2,0),IF(AH3&gt;=40,3,0),IF(AH3&gt;=60,4,0),IF(AH3&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
       <c r="AK3" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI3+0.2*AJ3</f>
         <v>4</v>
       </c>
       <c r="AL3" s="4"/>
@@ -884,7 +882,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
@@ -922,30 +920,30 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M4:AD4)</f>
         <v>12.75</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="2"/>
+        <f>L4+AE4</f>
         <v>12.75</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="3"/>
+        <f>AG5</f>
         <v>15</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF4/AG4)*100</f>
         <v>85</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH4&gt;=20,2,0),IF(AH4&gt;=40,3,0),IF(AH4&gt;=60,4,0),IF(AH4&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI4+0.2*AJ4</f>
         <v>4</v>
       </c>
       <c r="AL4" s="4"/>
@@ -953,7 +951,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -965,63 +963,69 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:K5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
         <v>3</v>
       </c>
-      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="Z5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f>SUM(M5:AD5)</f>
+        <v>12</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
+        <f>L5+AE5</f>
+        <v>12</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="3"/>
+        <f>AG6</f>
         <v>15</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <f>(AF5/AG5)*100</f>
+        <v>80</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>MAX(IF(AH5&gt;=20,2,0),IF(AH5&gt;=40,3,0),IF(AH5&gt;=60,4,0),IF(AH5&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="6"/>
-        <v>3.2</v>
+        <f>0.8*AI5+0.2*AJ5</f>
+        <v>4</v>
       </c>
       <c r="AL5" s="4"/>
     </row>
@@ -1042,7 +1046,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:K6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
@@ -1076,30 +1080,30 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M6:AD6)</f>
         <v>12</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="2"/>
+        <f>L6+AE6</f>
         <v>12</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="3"/>
+        <f>AG7</f>
         <v>15</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF6/AG6)*100</f>
         <v>80</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH6&gt;=20,2,0),IF(AH6&gt;=40,3,0),IF(AH6&gt;=60,4,0),IF(AH6&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ6" s="3">
         <v>0</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI6+0.2*AJ6</f>
         <v>4</v>
       </c>
       <c r="AL6" s="4"/>
@@ -1107,7 +1111,7 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1119,64 +1123,60 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:K7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1">
-        <v>4</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>10.25</v>
+      </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>SUM(M7:AD7)</f>
+        <v>11.25</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>L7+AE7</f>
+        <v>11.25</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="3"/>
+        <f>AG8</f>
         <v>15</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f>(AF7/AG7)*100</f>
+        <v>75</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH7&gt;=20,2,0),IF(AH7&gt;=40,3,0),IF(AH7&gt;=60,4,0),IF(AH7&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI7+0.2*AJ7</f>
         <v>3.2</v>
       </c>
       <c r="AL7" s="4"/>
@@ -1184,7 +1184,7 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1196,16 +1196,18 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:K8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1">
+      <c r="Q8" s="7">
         <v>1</v>
       </c>
       <c r="R8" s="1"/>
@@ -1215,47 +1217,47 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1">
-        <v>4</v>
-      </c>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="AB8" s="1">
+        <v>10</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>SUM(M8:AD8)</f>
+        <v>11</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>L8+AE8</f>
+        <v>11</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="3"/>
+        <f>AG9</f>
         <v>15</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f>(AF8/AG8)*100</f>
+        <v>73.333333333333329</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(AH8&gt;=20,2,0),IF(AH8&gt;=40,3,0),IF(AH8&gt;=60,4,0),IF(AH8&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI8+0.2*AJ8</f>
+        <v>3.2</v>
       </c>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1267,7 +1269,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -1275,62 +1277,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="U9" s="1"/>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>SUM(M9:AD9)</f>
+        <v>9</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
+        <f>L9+AE9</f>
+        <v>9</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="3"/>
+        <f>AG10</f>
         <v>15</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="4"/>
-        <v>43.333333333333336</v>
+        <f>(AF9/AG9)*100</f>
+        <v>60</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>MAX(IF(AH9&gt;=20,2,0),IF(AH9&gt;=40,3,0),IF(AH9&gt;=60,4,0),IF(AH9&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <f>0.8*AI9+0.2*AJ9</f>
+        <v>3.2</v>
       </c>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1342,7 +1346,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:K10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -1350,60 +1354,62 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1">
+        <v>2.75</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="1">
+        <v>0.75</v>
+      </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(M10:AD10)</f>
+        <v>6.5</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>L10+AE10</f>
+        <v>6.5</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="3"/>
+        <f>AG11</f>
         <v>15</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
+        <f>(AF10/AG10)*100</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(IF(AH10&gt;=20,2,0),IF(AH10&gt;=40,3,0),IF(AH10&gt;=60,4,0),IF(AH10&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>0.8*AI10+0.2*AJ10</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1415,64 +1421,66 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:K11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1">
+        <v>4</v>
+      </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f>SUM(M11:AD11)</f>
+        <v>6</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f>L11+AE11</f>
+        <v>6</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="3"/>
+        <f>AG12</f>
         <v>15</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>(AF11/AG11)*100</f>
+        <v>40</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(IF(AH11&gt;=20,2,0),IF(AH11&gt;=40,3,0),IF(AH11&gt;=60,4,0),IF(AH11&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>0.8*AI11+0.2*AJ11</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1484,21 +1492,25 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.75</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1510,30 +1522,30 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
+        <f>SUM(M12:AD12)</f>
+        <v>2</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
+        <f>L12+AE12</f>
+        <v>2</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="3"/>
+        <f>AG13</f>
         <v>15</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333321</v>
+        <f>(AF12/AG12)*100</f>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH12&gt;=20,2,0),IF(AH12&gt;=40,3,0),IF(AH12&gt;=60,4,0),IF(AH12&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI12+0.2*AJ12</f>
         <v>0</v>
       </c>
       <c r="AL12" s="4"/>
@@ -1541,7 +1553,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1553,70 +1565,64 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="6"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1">
-        <v>10</v>
-      </c>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>SUM(M13:AD13)</f>
+        <v>1.5</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>L13+AE13</f>
+        <v>1.5</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="3"/>
+        <f>AG14</f>
         <v>15</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="4"/>
-        <v>73.333333333333329</v>
+        <f>(AF13/AG13)*100</f>
+        <v>10</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>MAX(IF(AH13&gt;=20,2,0),IF(AH13&gt;=40,3,0),IF(AH13&gt;=60,4,0),IF(AH13&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="6"/>
-        <v>3.2</v>
+        <f>0.8*AI13+0.2*AJ13</f>
+        <v>0</v>
       </c>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1628,22 +1634,22 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:K14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <v>0.5</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1654,38 +1660,40 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(M14:AD14)</f>
+        <v>1.25</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>L14+AE14</f>
+        <v>1.25</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="3"/>
+        <f>AG15</f>
         <v>15</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <f>(AF14/AG14)*100</f>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH14&gt;=20,2,0),IF(AH14&gt;=40,3,0),IF(AH14&gt;=60,4,0),IF(AH14&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI14+0.2*AJ14</f>
         <v>0</v>
       </c>
       <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1697,61 +1705,57 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:K15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1">
-        <v>10.25</v>
-      </c>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
-        <v>11.25</v>
+        <f>SUM(M15:AD15)</f>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="2"/>
-        <v>11.25</v>
+        <f>L15+AE15</f>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="3"/>
+        <f>AG16</f>
         <v>15</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f>(AF15/AG15)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>MAX(IF(AH15&gt;=20,2,0),IF(AH15&gt;=40,3,0),IF(AH15&gt;=60,4,0),IF(AH15&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="6"/>
-        <v>3.2</v>
+        <f>0.8*AI15+0.2*AJ15</f>
+        <v>0</v>
       </c>
       <c r="AL15" s="4"/>
     </row>
@@ -1770,7 +1774,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:K16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -1796,30 +1800,30 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M16:AD16)</f>
         <v>0.5</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="2"/>
+        <f>L16+AE16</f>
         <v>0.5</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="3"/>
+        <f>AG17</f>
         <v>15</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF16/AG16)*100</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH16&gt;=20,2,0),IF(AH16&gt;=40,3,0),IF(AH16&gt;=60,4,0),IF(AH16&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI16+0.2*AJ16</f>
         <v>0</v>
       </c>
       <c r="AL16" s="4"/>
@@ -1839,7 +1843,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:K17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1861,30 +1865,30 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="2"/>
+        <f>L17+AE17</f>
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="3"/>
+        <f>AG18</f>
         <v>15</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF17/AG17)*100</f>
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH17&gt;=20,2,0),IF(AH17&gt;=40,3,0),IF(AH17&gt;=60,4,0),IF(AH17&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI17+0.2*AJ17</f>
         <v>0</v>
       </c>
       <c r="AL17" s="4"/>
@@ -1904,7 +1908,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:K18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -1926,30 +1930,30 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="2"/>
+        <f>L18+AE18</f>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="3"/>
+        <f>AG19</f>
         <v>15</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF18/AG18)*100</f>
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH18&gt;=20,2,0),IF(AH18&gt;=40,3,0),IF(AH18&gt;=60,4,0),IF(AH18&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI18+0.2*AJ18</f>
         <v>0</v>
       </c>
       <c r="AL18" s="4"/>
@@ -1969,7 +1973,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:K19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1991,30 +1995,30 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="2"/>
+        <f>L19+AE19</f>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="3"/>
+        <f>AG20</f>
         <v>15</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF19/AG19)*100</f>
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH19&gt;=20,2,0),IF(AH19&gt;=40,3,0),IF(AH19&gt;=60,4,0),IF(AH19&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI19+0.2*AJ19</f>
         <v>0</v>
       </c>
       <c r="AL19" s="4"/>
@@ -2034,7 +2038,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:K20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -2056,30 +2060,30 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="2"/>
+        <f>L20+AE20</f>
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="3"/>
+        <f>AG21</f>
         <v>15</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF20/AG20)*100</f>
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH20&gt;=20,2,0),IF(AH20&gt;=40,3,0),IF(AH20&gt;=60,4,0),IF(AH20&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI20+0.2*AJ20</f>
         <v>0</v>
       </c>
       <c r="AL20" s="4"/>
@@ -2099,7 +2103,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2121,30 +2125,30 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="2"/>
+        <f>L21+AE21</f>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="3"/>
+        <f>AG22</f>
         <v>15</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF21/AG21)*100</f>
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH21&gt;=20,2,0),IF(AH21&gt;=40,3,0),IF(AH21&gt;=60,4,0),IF(AH21&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI21+0.2*AJ21</f>
         <v>0</v>
       </c>
       <c r="AL21" s="4"/>
@@ -2164,7 +2168,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2186,30 +2190,30 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="2"/>
+        <f>L22+AE22</f>
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="3"/>
+        <f>AG23</f>
         <v>15</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF22/AG22)*100</f>
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH22&gt;=20,2,0),IF(AH22&gt;=40,3,0),IF(AH22&gt;=60,4,0),IF(AH22&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI22+0.2*AJ22</f>
         <v>0</v>
       </c>
       <c r="AL22" s="4"/>
@@ -2229,7 +2233,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -2253,30 +2257,30 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="2"/>
+        <f>L23+AE23</f>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="3"/>
+        <f>AG24</f>
         <v>15</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF23/AG23)*100</f>
         <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH23&gt;=20,2,0),IF(AH23&gt;=40,3,0),IF(AH23&gt;=60,4,0),IF(AH23&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI23+0.2*AJ23</f>
         <v>0</v>
       </c>
       <c r="AL23" s="4"/>
@@ -2296,7 +2300,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
@@ -2318,30 +2322,30 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="2"/>
+        <f>L24+AE24</f>
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="3"/>
+        <f>AG25</f>
         <v>15</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF24/AG24)*100</f>
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH24&gt;=20,2,0),IF(AH24&gt;=40,3,0),IF(AH24&gt;=60,4,0),IF(AH24&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI24+0.2*AJ24</f>
         <v>0</v>
       </c>
       <c r="AL24" s="4"/>
@@ -2361,7 +2365,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2383,30 +2387,30 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="2"/>
+        <f>L25+AE25</f>
         <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="3"/>
+        <f>AG26</f>
         <v>15</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF25/AG25)*100</f>
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH25&gt;=20,2,0),IF(AH25&gt;=40,3,0),IF(AH25&gt;=60,4,0),IF(AH25&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI25+0.2*AJ25</f>
         <v>0</v>
       </c>
       <c r="AL25" s="4"/>
@@ -2426,7 +2430,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C26:K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -2448,30 +2452,30 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="2"/>
+        <f>L26+AE26</f>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="3"/>
+        <f>AG27</f>
         <v>15</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF26/AG26)*100</f>
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH26&gt;=20,2,0),IF(AH26&gt;=40,3,0),IF(AH26&gt;=60,4,0),IF(AH26&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI26+0.2*AJ26</f>
         <v>0</v>
       </c>
       <c r="AL26" s="4"/>
@@ -2491,7 +2495,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2513,30 +2517,30 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="2"/>
+        <f>L27+AE27</f>
         <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="3"/>
+        <f>AG28</f>
         <v>15</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF27/AG27)*100</f>
         <v>0</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH27&gt;=20,2,0),IF(AH27&gt;=40,3,0),IF(AH27&gt;=60,4,0),IF(AH27&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI27+0.2*AJ27</f>
         <v>0</v>
       </c>
       <c r="AL27" s="4"/>
@@ -2556,7 +2560,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2578,30 +2582,30 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="2"/>
+        <f>L28+AE28</f>
         <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="3"/>
+        <f>AG29</f>
         <v>15</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF28/AG28)*100</f>
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH28&gt;=20,2,0),IF(AH28&gt;=40,3,0),IF(AH28&gt;=60,4,0),IF(AH28&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI28+0.2*AJ28</f>
         <v>0</v>
       </c>
       <c r="AL28" s="4"/>
@@ -2621,7 +2625,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="1"/>
@@ -2643,30 +2647,30 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="2"/>
+        <f>L29+AE29</f>
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="3"/>
+        <f>AG30</f>
         <v>15</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF29/AG29)*100</f>
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH29&gt;=20,2,0),IF(AH29&gt;=40,3,0),IF(AH29&gt;=60,4,0),IF(AH29&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI29+0.2*AJ29</f>
         <v>0</v>
       </c>
       <c r="AL29" s="4"/>
@@ -2686,7 +2690,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="1"/>
@@ -2708,30 +2712,30 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="2"/>
+        <f>L30+AE30</f>
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="3"/>
+        <f>AG31</f>
         <v>15</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF30/AG30)*100</f>
         <v>0</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH30&gt;=20,2,0),IF(AH30&gt;=40,3,0),IF(AH30&gt;=60,4,0),IF(AH30&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI30+0.2*AJ30</f>
         <v>0</v>
       </c>
       <c r="AL30" s="4"/>
@@ -2751,7 +2755,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="1"/>
@@ -2773,30 +2777,30 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="2"/>
+        <f>L31+AE31</f>
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="3"/>
+        <f>AG32</f>
         <v>15</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF31/AG31)*100</f>
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH31&gt;=20,2,0),IF(AH31&gt;=40,3,0),IF(AH31&gt;=60,4,0),IF(AH31&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI31+0.2*AJ31</f>
         <v>0</v>
       </c>
       <c r="AL31" s="4"/>
@@ -2816,7 +2820,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="1"/>
@@ -2838,30 +2842,30 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="2"/>
+        <f>L32+AE32</f>
         <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="3"/>
+        <f>AG33</f>
         <v>15</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF32/AG32)*100</f>
         <v>0</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH32&gt;=20,2,0),IF(AH32&gt;=40,3,0),IF(AH32&gt;=60,4,0),IF(AH32&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI32+0.2*AJ32</f>
         <v>0</v>
       </c>
       <c r="AL32" s="4"/>
@@ -2881,7 +2885,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="1"/>
@@ -2903,30 +2907,30 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M33:AD33)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="2"/>
+        <f>L33+AE33</f>
         <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="3"/>
+        <f>AG34</f>
         <v>15</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF33/AG33)*100</f>
         <v>0</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH33&gt;=20,2,0),IF(AH33&gt;=40,3,0),IF(AH33&gt;=60,4,0),IF(AH33&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI33+0.2*AJ33</f>
         <v>0</v>
       </c>
       <c r="AL33" s="4"/>
@@ -2946,7 +2950,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="1"/>
@@ -2968,30 +2972,30 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M34:AD34)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="2"/>
+        <f>L34+AE34</f>
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="3"/>
+        <f>AG35</f>
         <v>15</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF34/AG34)*100</f>
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH34&gt;=20,2,0),IF(AH34&gt;=40,3,0),IF(AH34&gt;=60,4,0),IF(AH34&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI34+0.2*AJ34</f>
         <v>0</v>
       </c>
       <c r="AL34" s="4"/>
@@ -3011,7 +3015,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1"/>
@@ -3033,30 +3037,30 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M35:AD35)</f>
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="2"/>
+        <f>L35+AE35</f>
         <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="3"/>
+        <f>AG36</f>
         <v>15</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF35/AG35)*100</f>
         <v>0</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH35&gt;=20,2,0),IF(AH35&gt;=40,3,0),IF(AH35&gt;=60,4,0),IF(AH35&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
         <v>0</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI35+0.2*AJ35</f>
         <v>0</v>
       </c>
       <c r="AL35" s="4"/>
@@ -3076,7 +3080,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="1"/>
@@ -3098,30 +3102,30 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M36:AD36)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="2"/>
+        <f>L36+AE36</f>
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="3"/>
+        <f>AG37</f>
         <v>15</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF36/AG36)*100</f>
         <v>0</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH36&gt;=20,2,0),IF(AH36&gt;=40,3,0),IF(AH36&gt;=60,4,0),IF(AH36&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ36" s="3">
         <v>0</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI36+0.2*AJ36</f>
         <v>0</v>
       </c>
       <c r="AL36" s="4"/>
@@ -3141,7 +3145,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="1"/>
@@ -3163,30 +3167,30 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M37:AD37)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="2"/>
+        <f>L37+AE37</f>
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="3"/>
+        <f>AG38</f>
         <v>15</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF37/AG37)*100</f>
         <v>0</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH37&gt;=20,2,0),IF(AH37&gt;=40,3,0),IF(AH37&gt;=60,4,0),IF(AH37&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ37" s="3">
         <v>0</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI37+0.2*AJ37</f>
         <v>0</v>
       </c>
       <c r="AL37" s="4"/>
@@ -3206,7 +3210,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="1"/>
@@ -3228,30 +3232,30 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M38:AD38)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" si="2"/>
+        <f>L38+AE38</f>
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="3"/>
+        <f>AG39</f>
         <v>15</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF38/AG38)*100</f>
         <v>0</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH38&gt;=20,2,0),IF(AH38&gt;=40,3,0),IF(AH38&gt;=60,4,0),IF(AH38&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="3">
         <v>0</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI38+0.2*AJ38</f>
         <v>0</v>
       </c>
       <c r="AL38" s="4"/>
@@ -3271,7 +3275,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="1"/>
@@ -3293,30 +3297,30 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M39:AD39)</f>
         <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" si="2"/>
+        <f>L39+AE39</f>
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <f t="shared" si="3"/>
+        <f>AG40</f>
         <v>15</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF39/AG39)*100</f>
         <v>0</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH39&gt;=20,2,0),IF(AH39&gt;=40,3,0),IF(AH39&gt;=60,4,0),IF(AH39&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="3">
         <v>0</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI39+0.2*AJ39</f>
         <v>0</v>
       </c>
       <c r="AL39" s="4"/>
@@ -3336,7 +3340,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="1"/>
@@ -3358,30 +3362,30 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M40:AD40)</f>
         <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="2"/>
+        <f>L40+AE40</f>
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="3"/>
+        <f>AG41</f>
         <v>15</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF40/AG40)*100</f>
         <v>0</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH40&gt;=20,2,0),IF(AH40&gt;=40,3,0),IF(AH40&gt;=60,4,0),IF(AH40&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ40" s="3">
         <v>0</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI40+0.2*AJ40</f>
         <v>0</v>
       </c>
       <c r="AL40" s="4"/>
@@ -3401,7 +3405,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="1"/>
@@ -3423,30 +3427,30 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M41:AD41)</f>
         <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="2"/>
+        <f>L41+AE41</f>
         <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <f t="shared" si="3"/>
+        <f>AG42</f>
         <v>15</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF41/AG41)*100</f>
         <v>0</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH41&gt;=20,2,0),IF(AH41&gt;=40,3,0),IF(AH41&gt;=60,4,0),IF(AH41&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="3">
         <v>0</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI41+0.2*AJ41</f>
         <v>0</v>
       </c>
       <c r="AL41" s="4"/>
@@ -3466,7 +3470,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="1"/>
@@ -3488,30 +3492,30 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M42:AD42)</f>
         <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="2"/>
+        <f>L42+AE42</f>
         <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="3"/>
+        <f>AG43</f>
         <v>15</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" si="4"/>
+        <f>(AF42/AG42)*100</f>
         <v>0</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(IF(AH42&gt;=20,2,0),IF(AH42&gt;=40,3,0),IF(AH42&gt;=60,4,0),IF(AH42&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AJ42" s="3">
         <v>0</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" si="6"/>
+        <f>0.8*AI42+0.2*AJ42</f>
         <v>0</v>
       </c>
       <c r="AL42" s="4"/>
@@ -3531,7 +3535,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" ref="L43" si="7">SUM(C43:K43)</f>
+        <f t="shared" ref="L43" si="0">SUM(C43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="1"/>
@@ -3583,11 +3587,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1">
-        <f t="shared" ref="AE43" si="8">SUM(M43:AD43)</f>
+        <f t="shared" ref="AE43" si="1">SUM(M43:AD43)</f>
         <v>15</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" ref="AF43" si="9">L43+AE43</f>
+        <f t="shared" ref="AF43" si="2">L43+AE43</f>
         <v>15</v>
       </c>
       <c r="AG43" s="1">
@@ -3595,18 +3599,18 @@
         <v>15</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" ref="AH43" si="10">(AF43/AG43)*100</f>
+        <f t="shared" ref="AH43" si="3">(AF43/AG43)*100</f>
         <v>100</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" ref="AI43" si="11">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
+        <f t="shared" ref="AI43" si="4">MAX(IF(AH43&gt;=20,2,0),IF(AH43&gt;=40,3,0),IF(AH43&gt;=60,4,0),IF(AH43&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AJ43" s="3">
         <v>0</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" ref="AK43" si="12">0.8*AI43+0.2*AJ43</f>
+        <f t="shared" ref="AK43" si="5">0.8*AI43+0.2*AJ43</f>
         <v>4</v>
       </c>
       <c r="AL43" s="4"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF041B-4365-4213-8759-3FD2D409C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55733-753B-4DAB-98C6-C87806861D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,9 @@
         <f>0.8*AI2+0.2*AJ2</f>
         <v>4</v>
       </c>
-      <c r="AL2" s="4"/>
+      <c r="AL2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -865,7 +867,9 @@
         <f>0.8*AI3+0.2*AJ3</f>
         <v>4</v>
       </c>
-      <c r="AL3" s="4"/>
+      <c r="AL3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -946,7 +950,9 @@
         <f>0.8*AI4+0.2*AJ4</f>
         <v>4</v>
       </c>
-      <c r="AL4" s="4"/>
+      <c r="AL4" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1027,7 +1033,9 @@
         <f>0.8*AI5+0.2*AJ5</f>
         <v>4</v>
       </c>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1106,7 +1114,9 @@
         <f>0.8*AI6+0.2*AJ6</f>
         <v>4</v>
       </c>
-      <c r="AL6" s="4"/>
+      <c r="AL6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1179,7 +1189,9 @@
         <f>0.8*AI7+0.2*AJ7</f>
         <v>3.2</v>
       </c>
-      <c r="AL7" s="4"/>
+      <c r="AL7" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1252,7 +1264,9 @@
         <f>0.8*AI8+0.2*AJ8</f>
         <v>3.2</v>
       </c>
-      <c r="AL8" s="4"/>
+      <c r="AL8" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1329,7 +1343,9 @@
         <f>0.8*AI9+0.2*AJ9</f>
         <v>3.2</v>
       </c>
-      <c r="AL9" s="4"/>
+      <c r="AL9" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1404,7 +1420,9 @@
         <f>0.8*AI10+0.2*AJ10</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="AL10" s="4"/>
+      <c r="AL10" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1475,12 +1493,14 @@
         <f>0.8*AI11+0.2*AJ11</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="AL11" s="4"/>
+      <c r="AL11" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1496,19 +1516,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1518,16 +1530,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="1">
+        <v>6</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
         <f>SUM(M12:AD12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF12" s="1">
         <f>L12+AE12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG12" s="1">
         <f>AG13</f>
@@ -1535,25 +1549,27 @@
       </c>
       <c r="AH12" s="3">
         <f>(AF12/AG12)*100</f>
-        <v>13.333333333333334</v>
+        <v>40</v>
       </c>
       <c r="AI12" s="3">
         <f>MAX(IF(AH12&gt;=20,2,0),IF(AH12&gt;=40,3,0),IF(AH12&gt;=60,4,0),IF(AH12&gt;=80,5,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
       <c r="AK12" s="3">
         <f>0.8*AI12+0.2*AJ12</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="4"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1569,19 +1585,23 @@
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.75</v>
+      </c>
       <c r="Q13" s="6"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="R13" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1592,11 +1612,11 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
         <f>SUM(M13:AD13)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="1">
         <f>L13+AE13</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="1">
         <f>AG14</f>
@@ -1604,7 +1624,7 @@
       </c>
       <c r="AH13" s="3">
         <f>(AF13/AG13)*100</f>
-        <v>10</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AI13" s="3">
         <f>MAX(IF(AH13&gt;=20,2,0),IF(AH13&gt;=40,3,0),IF(AH13&gt;=60,4,0),IF(AH13&gt;=80,5,0))</f>
@@ -1622,7 +1642,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1642,15 +1662,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
         <v>0.5</v>
       </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1661,11 +1681,11 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <f>SUM(M14:AD14)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AF14" s="1">
         <f>L14+AE14</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AG14" s="1">
         <f>AG15</f>
@@ -1673,7 +1693,7 @@
       </c>
       <c r="AH14" s="3">
         <f>(AF14/AG14)*100</f>
-        <v>8.3333333333333321</v>
+        <v>10</v>
       </c>
       <c r="AI14" s="3">
         <f>MAX(IF(AH14&gt;=20,2,0),IF(AH14&gt;=40,3,0),IF(AH14&gt;=60,4,0),IF(AH14&gt;=80,5,0))</f>
@@ -1689,11 +1709,9 @@
       <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1712,15 +1730,15 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <v>0.5</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1732,11 +1750,11 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
         <f>SUM(M15:AD15)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AF15" s="1">
         <f>L15+AE15</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AG15" s="1">
         <f>AG16</f>
@@ -1744,7 +1762,7 @@
       </c>
       <c r="AH15" s="3">
         <f>(AF15/AG15)*100</f>
-        <v>6.666666666666667</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AI15" s="3">
         <f>MAX(IF(AH15&gt;=20,2,0),IF(AH15&gt;=40,3,0),IF(AH15&gt;=60,4,0),IF(AH15&gt;=80,5,0))</f>
@@ -1760,9 +1778,11 @@
       <c r="AL15" s="4"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1778,18 +1798,18 @@
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1">
         <v>0.5</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1801,11 +1821,11 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
         <f>SUM(M16:AD16)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
         <f>L16+AE16</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
         <f>AG17</f>
@@ -1813,7 +1833,7 @@
       </c>
       <c r="AH16" s="3">
         <f>(AF16/AG16)*100</f>
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AI16" s="3">
         <f>MAX(IF(AH16&gt;=20,2,0),IF(AH16&gt;=40,3,0),IF(AH16&gt;=60,4,0),IF(AH16&gt;=80,5,0))</f>
@@ -1831,7 +1851,7 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1851,7 +1871,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1866,11 +1888,11 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1">
         <f>SUM(M17:AD17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF17" s="1">
         <f>L17+AE17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG17" s="1">
         <f>AG18</f>
@@ -1878,7 +1900,7 @@
       </c>
       <c r="AH17" s="3">
         <f>(AF17/AG17)*100</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AI17" s="3">
         <f>MAX(IF(AH17&gt;=20,2,0),IF(AH17&gt;=40,3,0),IF(AH17&gt;=60,4,0),IF(AH17&gt;=80,5,0))</f>
@@ -1896,7 +1918,7 @@
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2237,9 +2259,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="7"/>
